--- a/track.xlsx
+++ b/track.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mosta\OneDrive\Desktop\dashboard V.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Desktop\dashboard-V.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9DF7F3-203F-49BE-BDE0-67DFB641C642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6EE956-CE8F-4ADA-9690-E7773456198E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -670,10 +670,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A42150A-74BB-4659-8BE3-C38AE4DF6F2F}" name="Table22" displayName="Table22" ref="G3:J71" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="G3:J71" xr:uid="{9A42150A-74BB-4659-8BE3-C38AE4DF6F2F}"/>
@@ -993,7 +989,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -1077,11 +1073,11 @@
       <c r="D2" s="17"/>
       <c r="E2" s="6">
         <f ca="1">(E3+(F3/60))/60</f>
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="7">
         <f ca="1">(E3+(F3/60))</f>
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
@@ -1135,7 +1131,7 @@
       </c>
       <c r="E3" s="8">
         <f ca="1">SUMIF(Table223[CHECK],"Done",E$4:E$60)</f>
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="F3" s="8">
         <f ca="1">SUMIF(Table223[CHECK],"Done",F$4:F$60)</f>
@@ -1223,7 +1219,7 @@
       </c>
       <c r="G4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -1256,7 +1252,7 @@
       </c>
       <c r="S4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="T4" s="1">
         <v>0</v>
@@ -1290,7 +1286,7 @@
       </c>
       <c r="G5" s="15">
         <f ca="1">G4+1</f>
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="H5" s="1">
         <v>2.0833333333333333E-3</v>
@@ -1324,7 +1320,7 @@
       </c>
       <c r="S5" s="15">
         <f ca="1">S4+1</f>
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="T5" s="1">
         <v>1.0416666666666667E-3</v>
@@ -1358,7 +1354,7 @@
       </c>
       <c r="G6" s="15">
         <f t="shared" ref="G6:G69" ca="1" si="1">G5+1</f>
-        <v>45393</v>
+        <v>45395</v>
       </c>
       <c r="H6" s="1">
         <v>4.1666666666666701E-3</v>
@@ -1392,7 +1388,7 @@
       </c>
       <c r="S6" s="15">
         <f t="shared" ref="S6:S61" ca="1" si="3">S5+1</f>
-        <v>45393</v>
+        <v>45395</v>
       </c>
       <c r="T6" s="1">
         <v>2.0833333333333298E-3</v>
@@ -1415,7 +1411,9 @@
       <c r="C7" s="1">
         <v>8.3333333333333402E-3</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="E7" s="2">
         <v>3</v>
       </c>
@@ -1424,7 +1422,7 @@
       </c>
       <c r="G7" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="H7" s="1">
         <v>6.2500000000000003E-3</v>
@@ -1458,7 +1456,7 @@
       </c>
       <c r="S7" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="T7" s="1">
         <v>3.1250000000000002E-3</v>
@@ -1481,7 +1479,9 @@
       <c r="C8" s="1">
         <v>1.0416666666666701E-2</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="E8" s="2">
         <v>3</v>
       </c>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="G8" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45395</v>
+        <v>45397</v>
       </c>
       <c r="H8" s="1">
         <v>8.3333333333333297E-3</v>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="S8" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45395</v>
+        <v>45397</v>
       </c>
       <c r="T8" s="1">
         <v>4.1666666666666701E-3</v>
@@ -1547,7 +1547,9 @@
       <c r="C9" s="1">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="E9" s="2">
         <v>3</v>
       </c>
@@ -1556,7 +1558,7 @@
       </c>
       <c r="G9" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45396</v>
+        <v>45398</v>
       </c>
       <c r="H9" s="1">
         <v>1.0416666666666701E-2</v>
@@ -1590,7 +1592,7 @@
       </c>
       <c r="S9" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45396</v>
+        <v>45398</v>
       </c>
       <c r="T9" s="1">
         <v>5.2083333333333296E-3</v>
@@ -1613,7 +1615,9 @@
       <c r="C10" s="1">
         <v>1.4583333333333301E-2</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="E10" s="2">
         <v>3</v>
       </c>
@@ -1622,7 +1626,7 @@
       </c>
       <c r="G10" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45397</v>
+        <v>45399</v>
       </c>
       <c r="H10" s="1">
         <v>1.2500000000000001E-2</v>
@@ -1656,7 +1660,7 @@
       </c>
       <c r="S10" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45397</v>
+        <v>45399</v>
       </c>
       <c r="T10" s="1">
         <v>6.2500000000000003E-3</v>
@@ -1679,7 +1683,9 @@
       <c r="C11" s="1">
         <v>1.6666666666666701E-2</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="E11" s="2">
         <v>3</v>
       </c>
@@ -1688,7 +1694,7 @@
       </c>
       <c r="G11" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45398</v>
+        <v>45400</v>
       </c>
       <c r="H11" s="1">
         <v>1.4583333333333301E-2</v>
@@ -1722,7 +1728,7 @@
       </c>
       <c r="S11" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45398</v>
+        <v>45400</v>
       </c>
       <c r="T11" s="1">
         <v>7.2916666666666703E-3</v>
@@ -1745,7 +1751,9 @@
       <c r="C12" s="1">
         <v>1.8749999999999999E-2</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="E12" s="2">
         <v>3</v>
       </c>
@@ -1754,7 +1762,7 @@
       </c>
       <c r="G12" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45399</v>
+        <v>45401</v>
       </c>
       <c r="H12" s="1">
         <v>1.6666666666666701E-2</v>
@@ -1788,7 +1796,7 @@
       </c>
       <c r="S12" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45399</v>
+        <v>45401</v>
       </c>
       <c r="T12" s="1">
         <v>8.3333333333333297E-3</v>
@@ -1811,7 +1819,9 @@
       <c r="C13" s="1">
         <v>2.0833333333333301E-2</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="E13" s="2">
         <v>3</v>
       </c>
@@ -1820,7 +1830,7 @@
       </c>
       <c r="G13" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45400</v>
+        <v>45402</v>
       </c>
       <c r="H13" s="1">
         <v>1.8749999999999999E-2</v>
@@ -1854,7 +1864,7 @@
       </c>
       <c r="S13" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45400</v>
+        <v>45402</v>
       </c>
       <c r="T13" s="1">
         <v>9.3749999999999997E-3</v>
@@ -1875,7 +1885,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45401</v>
+        <v>45403</v>
       </c>
       <c r="H14" s="1">
         <v>2.0833333333333301E-2</v>
@@ -1909,7 +1919,7 @@
       </c>
       <c r="S14" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45401</v>
+        <v>45403</v>
       </c>
       <c r="T14" s="1">
         <v>1.0416666666666701E-2</v>
@@ -1930,7 +1940,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45402</v>
+        <v>45404</v>
       </c>
       <c r="H15" s="1">
         <v>2.29166666666667E-2</v>
@@ -1964,7 +1974,7 @@
       </c>
       <c r="S15" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45402</v>
+        <v>45404</v>
       </c>
       <c r="T15" s="1">
         <v>1.14583333333333E-2</v>
@@ -1985,7 +1995,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45403</v>
+        <v>45405</v>
       </c>
       <c r="H16" s="1">
         <v>2.5000000000000001E-2</v>
@@ -2019,7 +2029,7 @@
       </c>
       <c r="S16" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45403</v>
+        <v>45405</v>
       </c>
       <c r="T16" s="1">
         <v>1.2500000000000001E-2</v>
@@ -2040,7 +2050,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45404</v>
+        <v>45406</v>
       </c>
       <c r="H17" s="1">
         <v>2.70833333333333E-2</v>
@@ -2074,7 +2084,7 @@
       </c>
       <c r="S17" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45404</v>
+        <v>45406</v>
       </c>
       <c r="T17" s="1">
         <v>1.35416666666667E-2</v>
@@ -2095,7 +2105,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45405</v>
+        <v>45407</v>
       </c>
       <c r="H18" s="1">
         <v>2.9166666666666698E-2</v>
@@ -2129,7 +2139,7 @@
       </c>
       <c r="S18" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45405</v>
+        <v>45407</v>
       </c>
       <c r="T18" s="1">
         <v>1.4583333333333301E-2</v>
@@ -2150,7 +2160,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="H19" s="1">
         <v>3.125E-2</v>
@@ -2184,7 +2194,7 @@
       </c>
       <c r="S19" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="T19" s="1">
         <v>1.5625E-2</v>
@@ -2205,7 +2215,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45407</v>
+        <v>45409</v>
       </c>
       <c r="H20" s="1">
         <v>3.3333333333333298E-2</v>
@@ -2239,7 +2249,7 @@
       </c>
       <c r="S20" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45407</v>
+        <v>45409</v>
       </c>
       <c r="T20" s="1">
         <v>1.6666666666666701E-2</v>
@@ -2260,7 +2270,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45408</v>
+        <v>45410</v>
       </c>
       <c r="H21" s="1">
         <v>3.54166666666667E-2</v>
@@ -2294,7 +2304,7 @@
       </c>
       <c r="S21" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45408</v>
+        <v>45410</v>
       </c>
       <c r="T21" s="1">
         <v>1.7708333333333302E-2</v>
@@ -2315,7 +2325,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45409</v>
+        <v>45411</v>
       </c>
       <c r="H22" s="1">
         <v>3.7499999999999999E-2</v>
@@ -2349,7 +2359,7 @@
       </c>
       <c r="S22" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45409</v>
+        <v>45411</v>
       </c>
       <c r="T22" s="1">
         <v>1.8749999999999999E-2</v>
@@ -2370,7 +2380,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45410</v>
+        <v>45412</v>
       </c>
       <c r="H23" s="1">
         <v>3.9583333333333297E-2</v>
@@ -2400,7 +2410,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45410</v>
+        <v>45412</v>
       </c>
       <c r="T23" s="1">
         <v>1.97916666666667E-2</v>
@@ -2421,7 +2431,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45411</v>
+        <v>45413</v>
       </c>
       <c r="H24" s="1">
         <v>4.1666666666666699E-2</v>
@@ -2451,7 +2461,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45411</v>
+        <v>45413</v>
       </c>
       <c r="T24" s="1">
         <v>2.0833333333333301E-2</v>
@@ -2472,7 +2482,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45412</v>
+        <v>45414</v>
       </c>
       <c r="H25" s="1">
         <v>4.3749999999999997E-2</v>
@@ -2502,7 +2512,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45412</v>
+        <v>45414</v>
       </c>
       <c r="T25" s="1">
         <v>2.1874999999999999E-2</v>
@@ -2523,7 +2533,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45413</v>
+        <v>45415</v>
       </c>
       <c r="H26" s="1">
         <v>4.5833333333333302E-2</v>
@@ -2553,7 +2563,7 @@
       <c r="R26" s="2"/>
       <c r="S26" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45413</v>
+        <v>45415</v>
       </c>
       <c r="T26" s="1">
         <v>2.29166666666667E-2</v>
@@ -2574,7 +2584,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45414</v>
+        <v>45416</v>
       </c>
       <c r="H27" s="1">
         <v>4.7916666666666698E-2</v>
@@ -2604,7 +2614,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45414</v>
+        <v>45416</v>
       </c>
       <c r="T27" s="1">
         <v>2.39583333333333E-2</v>
@@ -2625,7 +2635,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45415</v>
+        <v>45417</v>
       </c>
       <c r="H28" s="1">
         <v>0.05</v>
@@ -2655,7 +2665,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45415</v>
+        <v>45417</v>
       </c>
       <c r="T28" s="1">
         <v>2.5000000000000001E-2</v>
@@ -2676,7 +2686,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45416</v>
+        <v>45418</v>
       </c>
       <c r="H29" s="1">
         <v>5.2083333333333301E-2</v>
@@ -2706,7 +2716,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45416</v>
+        <v>45418</v>
       </c>
       <c r="T29" s="1">
         <v>2.6041666666666699E-2</v>
@@ -2727,7 +2737,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45417</v>
+        <v>45419</v>
       </c>
       <c r="H30" s="1">
         <v>5.4166666666666703E-2</v>
@@ -2757,7 +2767,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45417</v>
+        <v>45419</v>
       </c>
       <c r="T30" s="1">
         <v>2.70833333333333E-2</v>
@@ -2778,7 +2788,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45418</v>
+        <v>45420</v>
       </c>
       <c r="H31" s="1">
         <v>5.6250000000000001E-2</v>
@@ -2808,7 +2818,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45418</v>
+        <v>45420</v>
       </c>
       <c r="T31" s="1">
         <v>2.8125000000000001E-2</v>
@@ -2829,7 +2839,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45419</v>
+        <v>45421</v>
       </c>
       <c r="H32" s="1">
         <v>5.83333333333333E-2</v>
@@ -2859,7 +2869,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45419</v>
+        <v>45421</v>
       </c>
       <c r="T32" s="1">
         <v>2.9166666666666698E-2</v>
@@ -2880,7 +2890,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45420</v>
+        <v>45422</v>
       </c>
       <c r="H33" s="1">
         <v>6.0416666666666702E-2</v>
@@ -2910,7 +2920,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45420</v>
+        <v>45422</v>
       </c>
       <c r="T33" s="1">
         <v>3.0208333333333299E-2</v>
@@ -2931,7 +2941,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45421</v>
+        <v>45423</v>
       </c>
       <c r="H34" s="1">
         <v>6.25E-2</v>
@@ -2961,7 +2971,7 @@
       <c r="R34" s="2"/>
       <c r="S34" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45421</v>
+        <v>45423</v>
       </c>
       <c r="T34" s="1">
         <v>3.125E-2</v>
@@ -2982,7 +2992,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45422</v>
+        <v>45424</v>
       </c>
       <c r="H35" s="1">
         <v>6.4583333333333298E-2</v>
@@ -3012,7 +3022,7 @@
       <c r="R35" s="2"/>
       <c r="S35" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45422</v>
+        <v>45424</v>
       </c>
       <c r="T35" s="1">
         <v>3.2291666666666698E-2</v>
@@ -3033,7 +3043,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45423</v>
+        <v>45425</v>
       </c>
       <c r="H36" s="1">
         <v>6.6666666666666693E-2</v>
@@ -3063,7 +3073,7 @@
       <c r="R36" s="2"/>
       <c r="S36" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45423</v>
+        <v>45425</v>
       </c>
       <c r="T36" s="1">
         <v>3.3333333333333298E-2</v>
@@ -3084,7 +3094,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45424</v>
+        <v>45426</v>
       </c>
       <c r="H37" s="1">
         <v>6.8750000000000006E-2</v>
@@ -3114,7 +3124,7 @@
       <c r="R37" s="2"/>
       <c r="S37" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45424</v>
+        <v>45426</v>
       </c>
       <c r="T37" s="1">
         <v>3.4375000000000003E-2</v>
@@ -3135,7 +3145,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45425</v>
+        <v>45427</v>
       </c>
       <c r="H38" s="1">
         <v>7.0833333333333304E-2</v>
@@ -3165,7 +3175,7 @@
       <c r="R38" s="2"/>
       <c r="S38" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45425</v>
+        <v>45427</v>
       </c>
       <c r="T38" s="1">
         <v>3.54166666666667E-2</v>
@@ -3186,7 +3196,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45426</v>
+        <v>45428</v>
       </c>
       <c r="H39" s="1">
         <v>7.2916666666666699E-2</v>
@@ -3216,7 +3226,7 @@
       <c r="R39" s="2"/>
       <c r="S39" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45426</v>
+        <v>45428</v>
       </c>
       <c r="T39" s="1">
         <v>3.6458333333333301E-2</v>
@@ -3237,7 +3247,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45427</v>
+        <v>45429</v>
       </c>
       <c r="H40" s="1">
         <v>7.4999999999999997E-2</v>
@@ -3267,7 +3277,7 @@
       <c r="R40" s="2"/>
       <c r="S40" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45427</v>
+        <v>45429</v>
       </c>
       <c r="T40" s="1">
         <v>3.7499999999999999E-2</v>
@@ -3288,7 +3298,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45428</v>
+        <v>45430</v>
       </c>
       <c r="H41" s="1">
         <v>7.7083333333333295E-2</v>
@@ -3314,7 +3324,7 @@
       <c r="R41" s="2"/>
       <c r="S41" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45428</v>
+        <v>45430</v>
       </c>
       <c r="T41" s="1">
         <v>3.8541666666666703E-2</v>
@@ -3335,7 +3345,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45429</v>
+        <v>45431</v>
       </c>
       <c r="H42" s="1">
         <v>7.9166666666666705E-2</v>
@@ -3361,7 +3371,7 @@
       <c r="R42" s="2"/>
       <c r="S42" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45429</v>
+        <v>45431</v>
       </c>
       <c r="T42" s="1">
         <v>3.9583333333333297E-2</v>
@@ -3382,7 +3392,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45430</v>
+        <v>45432</v>
       </c>
       <c r="H43" s="1">
         <v>8.1250000000000003E-2</v>
@@ -3408,7 +3418,7 @@
       <c r="R43" s="2"/>
       <c r="S43" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45430</v>
+        <v>45432</v>
       </c>
       <c r="T43" s="1">
         <v>4.1666666666666664E-2</v>
@@ -3429,7 +3439,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45431</v>
+        <v>45433</v>
       </c>
       <c r="H44" s="1">
         <v>8.3333333333333301E-2</v>
@@ -3455,7 +3465,7 @@
       <c r="R44" s="2"/>
       <c r="S44" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45431</v>
+        <v>45433</v>
       </c>
       <c r="T44" s="1">
         <v>4.5833333333333302E-2</v>
@@ -3476,7 +3486,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45432</v>
+        <v>45434</v>
       </c>
       <c r="H45" s="1">
         <v>8.5416666666666696E-2</v>
@@ -3502,7 +3512,7 @@
       <c r="R45" s="2"/>
       <c r="S45" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45432</v>
+        <v>45434</v>
       </c>
       <c r="T45" s="1">
         <v>4.9999999999999899E-2</v>
@@ -3523,7 +3533,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45433</v>
+        <v>45435</v>
       </c>
       <c r="H46" s="1">
         <v>8.7499999999999994E-2</v>
@@ -3549,7 +3559,7 @@
       <c r="R46" s="2"/>
       <c r="S46" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45433</v>
+        <v>45435</v>
       </c>
       <c r="T46" s="1">
         <v>5.4166666666666599E-2</v>
@@ -3570,7 +3580,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45434</v>
+        <v>45436</v>
       </c>
       <c r="H47" s="1">
         <v>8.9583333333333307E-2</v>
@@ -3596,7 +3606,7 @@
       <c r="R47" s="2"/>
       <c r="S47" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45434</v>
+        <v>45436</v>
       </c>
       <c r="T47" s="1">
         <v>5.83333333333333E-2</v>
@@ -3617,7 +3627,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45435</v>
+        <v>45437</v>
       </c>
       <c r="H48" s="1">
         <v>9.1666666666666702E-2</v>
@@ -3643,7 +3653,7 @@
       <c r="R48" s="2"/>
       <c r="S48" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45435</v>
+        <v>45437</v>
       </c>
       <c r="T48" s="1">
         <v>6.2499999999999903E-2</v>
@@ -3664,7 +3674,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45436</v>
+        <v>45438</v>
       </c>
       <c r="H49" s="1">
         <v>9.375E-2</v>
@@ -3690,7 +3700,7 @@
       <c r="R49" s="2"/>
       <c r="S49" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45436</v>
+        <v>45438</v>
       </c>
       <c r="T49" s="1">
         <v>6.6666666666666499E-2</v>
@@ -3711,7 +3721,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45437</v>
+        <v>45439</v>
       </c>
       <c r="H50" s="1">
         <v>9.5833333333333298E-2</v>
@@ -3737,7 +3747,7 @@
       <c r="R50" s="2"/>
       <c r="S50" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45437</v>
+        <v>45439</v>
       </c>
       <c r="T50" s="1">
         <v>7.0833333333333207E-2</v>
@@ -3758,7 +3768,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45438</v>
+        <v>45440</v>
       </c>
       <c r="H51" s="1">
         <v>9.7916666666666693E-2</v>
@@ -3784,7 +3794,7 @@
       <c r="R51" s="2"/>
       <c r="S51" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45438</v>
+        <v>45440</v>
       </c>
       <c r="T51" s="1">
         <v>7.4999999999999803E-2</v>
@@ -3805,7 +3815,7 @@
       <c r="F52" s="2"/>
       <c r="G52" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45439</v>
+        <v>45441</v>
       </c>
       <c r="H52" s="1">
         <v>0.1</v>
@@ -3831,7 +3841,7 @@
       <c r="R52" s="2"/>
       <c r="S52" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45439</v>
+        <v>45441</v>
       </c>
       <c r="T52" s="1">
         <v>7.9166666666666399E-2</v>
@@ -3852,7 +3862,7 @@
       <c r="F53" s="2"/>
       <c r="G53" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45440</v>
+        <v>45442</v>
       </c>
       <c r="H53" s="1">
         <v>0.102083333333333</v>
@@ -3878,7 +3888,7 @@
       <c r="R53" s="2"/>
       <c r="S53" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45440</v>
+        <v>45442</v>
       </c>
       <c r="T53" s="1">
         <v>8.3333333333333107E-2</v>
@@ -3899,7 +3909,7 @@
       <c r="F54" s="2"/>
       <c r="G54" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45441</v>
+        <v>45443</v>
       </c>
       <c r="H54" s="1">
         <v>0.104166666666667</v>
@@ -3925,7 +3935,7 @@
       <c r="R54" s="2"/>
       <c r="S54" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45441</v>
+        <v>45443</v>
       </c>
       <c r="T54" s="1">
         <v>9.0277777777777776E-2</v>
@@ -3946,7 +3956,7 @@
       <c r="F55" s="2"/>
       <c r="G55" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45442</v>
+        <v>45444</v>
       </c>
       <c r="H55" s="1">
         <v>0.10625</v>
@@ -3972,7 +3982,7 @@
       <c r="R55" s="2"/>
       <c r="S55" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45442</v>
+        <v>45444</v>
       </c>
       <c r="T55" s="1">
         <v>9.7222222222222404E-2</v>
@@ -3993,7 +4003,7 @@
       <c r="F56" s="2"/>
       <c r="G56" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45443</v>
+        <v>45445</v>
       </c>
       <c r="H56" s="1">
         <v>0.108333333333333</v>
@@ -4019,7 +4029,7 @@
       <c r="R56" s="2"/>
       <c r="S56" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45443</v>
+        <v>45445</v>
       </c>
       <c r="T56" s="1">
         <v>0.104166666666667</v>
@@ -4040,7 +4050,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45444</v>
+        <v>45446</v>
       </c>
       <c r="H57" s="1">
         <v>0.110416666666667</v>
@@ -4066,7 +4076,7 @@
       <c r="R57" s="2"/>
       <c r="S57" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45444</v>
+        <v>45446</v>
       </c>
       <c r="T57" s="1">
         <v>0.11111111111111199</v>
@@ -4087,7 +4097,7 @@
       <c r="F58" s="2"/>
       <c r="G58" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45445</v>
+        <v>45447</v>
       </c>
       <c r="H58" s="1">
         <v>0.1125</v>
@@ -4113,7 +4123,7 @@
       <c r="R58" s="2"/>
       <c r="S58" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45445</v>
+        <v>45447</v>
       </c>
       <c r="T58" s="1">
         <v>0.118055555555556</v>
@@ -4134,7 +4144,7 @@
       <c r="F59" s="2"/>
       <c r="G59" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45446</v>
+        <v>45448</v>
       </c>
       <c r="H59" s="1">
         <v>0.114583333333333</v>
@@ -4160,7 +4170,7 @@
       <c r="R59" s="2"/>
       <c r="S59" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45446</v>
+        <v>45448</v>
       </c>
       <c r="T59" s="1">
         <v>0.125000000000001</v>
@@ -4181,7 +4191,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45447</v>
+        <v>45449</v>
       </c>
       <c r="H60" s="1">
         <v>0.116666666666667</v>
@@ -4207,7 +4217,7 @@
       <c r="R60" s="2"/>
       <c r="S60" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45447</v>
+        <v>45449</v>
       </c>
       <c r="T60" s="1">
         <v>0.131944444444446</v>
@@ -4228,7 +4238,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45448</v>
+        <v>45450</v>
       </c>
       <c r="H61" s="1">
         <v>0.11874999999999999</v>
@@ -4254,7 +4264,7 @@
       <c r="R61" s="2"/>
       <c r="S61" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45448</v>
+        <v>45450</v>
       </c>
       <c r="T61" s="1">
         <v>0.138888888888891</v>
@@ -4275,7 +4285,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45449</v>
+        <v>45451</v>
       </c>
       <c r="H62" s="1">
         <v>0.120833333333333</v>
@@ -4315,7 +4325,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45450</v>
+        <v>45452</v>
       </c>
       <c r="H63" s="1">
         <v>0.12291666666666699</v>
@@ -4355,7 +4365,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45451</v>
+        <v>45453</v>
       </c>
       <c r="H64" s="1">
         <v>0.125</v>
@@ -4395,7 +4405,7 @@
       <c r="F65" s="2"/>
       <c r="G65" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45452</v>
+        <v>45454</v>
       </c>
       <c r="H65" s="1">
         <v>0.12708333333333299</v>
@@ -4435,7 +4445,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45453</v>
+        <v>45455</v>
       </c>
       <c r="H66" s="1">
         <v>0.12916666666666701</v>
@@ -4475,7 +4485,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45454</v>
+        <v>45456</v>
       </c>
       <c r="H67" s="1">
         <v>0.13125000000000001</v>
@@ -4515,7 +4525,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45455</v>
+        <v>45457</v>
       </c>
       <c r="H68" s="1">
         <v>0.133333333333333</v>
@@ -4555,7 +4565,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45456</v>
+        <v>45458</v>
       </c>
       <c r="H69" s="1">
         <v>0.13541666666666699</v>
@@ -4595,7 +4605,7 @@
       <c r="F70" s="2"/>
       <c r="G70" s="15">
         <f t="shared" ref="G70:G71" ca="1" si="4">G69+1</f>
-        <v>45457</v>
+        <v>45459</v>
       </c>
       <c r="H70" s="1">
         <v>0.13750000000000001</v>
@@ -4635,7 +4645,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>45458</v>
+        <v>45460</v>
       </c>
       <c r="H71" s="1">
         <v>0.139583333333333</v>

--- a/track.xlsx
+++ b/track.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Desktop\dashboard-V.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mosta\OneDrive\Desktop\dashboard-V.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6EE956-CE8F-4ADA-9690-E7773456198E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C70E4B2-C429-47FA-82BF-179EF952784D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>CHECK</t>
-  </si>
-  <si>
-    <t>Done</t>
   </si>
   <si>
     <t>Next.js 14 Admin Dashboard Tutorial Fullstack Next.js 14 Project with Server Actions</t>
@@ -989,7 +986,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -1018,52 +1015,52 @@
   <sheetData>
     <row r="1" spans="1:24" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
       <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="17" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>8</v>
       </c>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
       <c r="K1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="M1" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N1" s="16"/>
       <c r="O1" s="16"/>
       <c r="P1" s="16"/>
       <c r="Q1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="S1" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T1" s="16"/>
       <c r="U1" s="16"/>
       <c r="V1" s="16"/>
       <c r="W1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="25.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
@@ -1073,11 +1070,11 @@
       <c r="D2" s="17"/>
       <c r="E2" s="6">
         <f ca="1">(E3+(F3/60))/60</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F2" s="7">
         <f ca="1">(E3+(F3/60))</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
@@ -1131,7 +1128,7 @@
       </c>
       <c r="E3" s="8">
         <f ca="1">SUMIF(Table223[CHECK],"Done",E$4:E$60)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F3" s="8">
         <f ca="1">SUMIF(Table223[CHECK],"Done",F$4:F$60)</f>
@@ -1200,7 +1197,8 @@
     </row>
     <row r="4" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
-        <v>45391</v>
+        <f ca="1">TODAY()</f>
+        <v>45395</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -1208,9 +1206,7 @@
       <c r="C4" s="1">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>4</v>
-      </c>
+      <c r="D4" s="10"/>
       <c r="E4" s="2">
         <v>3</v>
       </c>
@@ -1219,7 +1215,7 @@
       </c>
       <c r="G4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45393</v>
+        <v>45395</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -1252,7 +1248,7 @@
       </c>
       <c r="S4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45393</v>
+        <v>45395</v>
       </c>
       <c r="T4" s="1">
         <v>0</v>
@@ -1266,8 +1262,8 @@
     </row>
     <row r="5" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
-        <f>A4+1</f>
-        <v>45392</v>
+        <f ca="1">A4+1</f>
+        <v>45396</v>
       </c>
       <c r="B5" s="1">
         <v>2.0833333333333333E-3</v>
@@ -1275,9 +1271,7 @@
       <c r="C5" s="1">
         <v>4.1666666666666701E-3</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>4</v>
-      </c>
+      <c r="D5" s="10"/>
       <c r="E5" s="2">
         <v>3</v>
       </c>
@@ -1286,7 +1280,7 @@
       </c>
       <c r="G5" s="15">
         <f ca="1">G4+1</f>
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="H5" s="1">
         <v>2.0833333333333333E-3</v>
@@ -1320,7 +1314,7 @@
       </c>
       <c r="S5" s="15">
         <f ca="1">S4+1</f>
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="T5" s="1">
         <v>1.0416666666666667E-3</v>
@@ -1334,8 +1328,8 @@
     </row>
     <row r="6" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15">
-        <f t="shared" ref="A6:A13" si="0">A5+1</f>
-        <v>45393</v>
+        <f t="shared" ref="A6:A13" ca="1" si="0">A5+1</f>
+        <v>45397</v>
       </c>
       <c r="B6" s="1">
         <v>4.1666666666666701E-3</v>
@@ -1343,9 +1337,7 @@
       <c r="C6" s="1">
         <v>6.2500000000000003E-3</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>4</v>
-      </c>
+      <c r="D6" s="10"/>
       <c r="E6" s="2">
         <v>3</v>
       </c>
@@ -1354,7 +1346,7 @@
       </c>
       <c r="G6" s="15">
         <f t="shared" ref="G6:G69" ca="1" si="1">G5+1</f>
-        <v>45395</v>
+        <v>45397</v>
       </c>
       <c r="H6" s="1">
         <v>4.1666666666666701E-3</v>
@@ -1388,7 +1380,7 @@
       </c>
       <c r="S6" s="15">
         <f t="shared" ref="S6:S61" ca="1" si="3">S5+1</f>
-        <v>45395</v>
+        <v>45397</v>
       </c>
       <c r="T6" s="1">
         <v>2.0833333333333298E-3</v>
@@ -1402,8 +1394,8 @@
     </row>
     <row r="7" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
-        <f t="shared" si="0"/>
-        <v>45394</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45398</v>
       </c>
       <c r="B7" s="1">
         <v>6.2500000000000003E-3</v>
@@ -1411,9 +1403,7 @@
       <c r="C7" s="1">
         <v>8.3333333333333402E-3</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>4</v>
-      </c>
+      <c r="D7" s="10"/>
       <c r="E7" s="2">
         <v>3</v>
       </c>
@@ -1422,7 +1412,7 @@
       </c>
       <c r="G7" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45396</v>
+        <v>45398</v>
       </c>
       <c r="H7" s="1">
         <v>6.2500000000000003E-3</v>
@@ -1456,7 +1446,7 @@
       </c>
       <c r="S7" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45396</v>
+        <v>45398</v>
       </c>
       <c r="T7" s="1">
         <v>3.1250000000000002E-3</v>
@@ -1470,8 +1460,8 @@
     </row>
     <row r="8" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
-        <f t="shared" si="0"/>
-        <v>45395</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45399</v>
       </c>
       <c r="B8" s="1">
         <v>8.3333333333333297E-3</v>
@@ -1479,9 +1469,7 @@
       <c r="C8" s="1">
         <v>1.0416666666666701E-2</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>4</v>
-      </c>
+      <c r="D8" s="10"/>
       <c r="E8" s="2">
         <v>3</v>
       </c>
@@ -1490,7 +1478,7 @@
       </c>
       <c r="G8" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45397</v>
+        <v>45399</v>
       </c>
       <c r="H8" s="1">
         <v>8.3333333333333297E-3</v>
@@ -1524,7 +1512,7 @@
       </c>
       <c r="S8" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45397</v>
+        <v>45399</v>
       </c>
       <c r="T8" s="1">
         <v>4.1666666666666701E-3</v>
@@ -1538,8 +1526,8 @@
     </row>
     <row r="9" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
-        <f t="shared" si="0"/>
-        <v>45396</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45400</v>
       </c>
       <c r="B9" s="1">
         <v>1.0416666666666701E-2</v>
@@ -1547,9 +1535,7 @@
       <c r="C9" s="1">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>4</v>
-      </c>
+      <c r="D9" s="10"/>
       <c r="E9" s="2">
         <v>3</v>
       </c>
@@ -1558,7 +1544,7 @@
       </c>
       <c r="G9" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45398</v>
+        <v>45400</v>
       </c>
       <c r="H9" s="1">
         <v>1.0416666666666701E-2</v>
@@ -1592,7 +1578,7 @@
       </c>
       <c r="S9" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45398</v>
+        <v>45400</v>
       </c>
       <c r="T9" s="1">
         <v>5.2083333333333296E-3</v>
@@ -1606,8 +1592,8 @@
     </row>
     <row r="10" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
-        <f t="shared" si="0"/>
-        <v>45397</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45401</v>
       </c>
       <c r="B10" s="1">
         <v>1.2500000000000001E-2</v>
@@ -1615,9 +1601,7 @@
       <c r="C10" s="1">
         <v>1.4583333333333301E-2</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>4</v>
-      </c>
+      <c r="D10" s="10"/>
       <c r="E10" s="2">
         <v>3</v>
       </c>
@@ -1626,7 +1610,7 @@
       </c>
       <c r="G10" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45399</v>
+        <v>45401</v>
       </c>
       <c r="H10" s="1">
         <v>1.2500000000000001E-2</v>
@@ -1660,7 +1644,7 @@
       </c>
       <c r="S10" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45399</v>
+        <v>45401</v>
       </c>
       <c r="T10" s="1">
         <v>6.2500000000000003E-3</v>
@@ -1674,8 +1658,8 @@
     </row>
     <row r="11" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
-        <f t="shared" si="0"/>
-        <v>45398</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45402</v>
       </c>
       <c r="B11" s="1">
         <v>1.4583333333333301E-2</v>
@@ -1683,9 +1667,7 @@
       <c r="C11" s="1">
         <v>1.6666666666666701E-2</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>4</v>
-      </c>
+      <c r="D11" s="10"/>
       <c r="E11" s="2">
         <v>3</v>
       </c>
@@ -1694,7 +1676,7 @@
       </c>
       <c r="G11" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45400</v>
+        <v>45402</v>
       </c>
       <c r="H11" s="1">
         <v>1.4583333333333301E-2</v>
@@ -1728,7 +1710,7 @@
       </c>
       <c r="S11" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45400</v>
+        <v>45402</v>
       </c>
       <c r="T11" s="1">
         <v>7.2916666666666703E-3</v>
@@ -1742,8 +1724,8 @@
     </row>
     <row r="12" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
-        <f t="shared" si="0"/>
-        <v>45399</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45403</v>
       </c>
       <c r="B12" s="1">
         <v>1.6666666666666701E-2</v>
@@ -1751,9 +1733,7 @@
       <c r="C12" s="1">
         <v>1.8749999999999999E-2</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>4</v>
-      </c>
+      <c r="D12" s="10"/>
       <c r="E12" s="2">
         <v>3</v>
       </c>
@@ -1762,7 +1742,7 @@
       </c>
       <c r="G12" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45401</v>
+        <v>45403</v>
       </c>
       <c r="H12" s="1">
         <v>1.6666666666666701E-2</v>
@@ -1796,7 +1776,7 @@
       </c>
       <c r="S12" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45401</v>
+        <v>45403</v>
       </c>
       <c r="T12" s="1">
         <v>8.3333333333333297E-3</v>
@@ -1810,8 +1790,8 @@
     </row>
     <row r="13" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
-        <f t="shared" si="0"/>
-        <v>45400</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45404</v>
       </c>
       <c r="B13" s="1">
         <v>1.8749999999999999E-2</v>
@@ -1819,9 +1799,7 @@
       <c r="C13" s="1">
         <v>2.0833333333333301E-2</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>4</v>
-      </c>
+      <c r="D13" s="10"/>
       <c r="E13" s="2">
         <v>3</v>
       </c>
@@ -1830,7 +1808,7 @@
       </c>
       <c r="G13" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45402</v>
+        <v>45404</v>
       </c>
       <c r="H13" s="1">
         <v>1.8749999999999999E-2</v>
@@ -1864,7 +1842,7 @@
       </c>
       <c r="S13" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45402</v>
+        <v>45404</v>
       </c>
       <c r="T13" s="1">
         <v>9.3749999999999997E-3</v>
@@ -1885,7 +1863,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45403</v>
+        <v>45405</v>
       </c>
       <c r="H14" s="1">
         <v>2.0833333333333301E-2</v>
@@ -1919,7 +1897,7 @@
       </c>
       <c r="S14" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45403</v>
+        <v>45405</v>
       </c>
       <c r="T14" s="1">
         <v>1.0416666666666701E-2</v>
@@ -1940,7 +1918,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45404</v>
+        <v>45406</v>
       </c>
       <c r="H15" s="1">
         <v>2.29166666666667E-2</v>
@@ -1974,7 +1952,7 @@
       </c>
       <c r="S15" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45404</v>
+        <v>45406</v>
       </c>
       <c r="T15" s="1">
         <v>1.14583333333333E-2</v>
@@ -1995,7 +1973,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45405</v>
+        <v>45407</v>
       </c>
       <c r="H16" s="1">
         <v>2.5000000000000001E-2</v>
@@ -2029,7 +2007,7 @@
       </c>
       <c r="S16" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45405</v>
+        <v>45407</v>
       </c>
       <c r="T16" s="1">
         <v>1.2500000000000001E-2</v>
@@ -2050,7 +2028,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="H17" s="1">
         <v>2.70833333333333E-2</v>
@@ -2084,7 +2062,7 @@
       </c>
       <c r="S17" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="T17" s="1">
         <v>1.35416666666667E-2</v>
@@ -2105,7 +2083,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45407</v>
+        <v>45409</v>
       </c>
       <c r="H18" s="1">
         <v>2.9166666666666698E-2</v>
@@ -2139,7 +2117,7 @@
       </c>
       <c r="S18" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45407</v>
+        <v>45409</v>
       </c>
       <c r="T18" s="1">
         <v>1.4583333333333301E-2</v>
@@ -2160,7 +2138,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45408</v>
+        <v>45410</v>
       </c>
       <c r="H19" s="1">
         <v>3.125E-2</v>
@@ -2194,7 +2172,7 @@
       </c>
       <c r="S19" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45408</v>
+        <v>45410</v>
       </c>
       <c r="T19" s="1">
         <v>1.5625E-2</v>
@@ -2215,7 +2193,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45409</v>
+        <v>45411</v>
       </c>
       <c r="H20" s="1">
         <v>3.3333333333333298E-2</v>
@@ -2249,7 +2227,7 @@
       </c>
       <c r="S20" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45409</v>
+        <v>45411</v>
       </c>
       <c r="T20" s="1">
         <v>1.6666666666666701E-2</v>
@@ -2270,7 +2248,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45410</v>
+        <v>45412</v>
       </c>
       <c r="H21" s="1">
         <v>3.54166666666667E-2</v>
@@ -2304,7 +2282,7 @@
       </c>
       <c r="S21" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45410</v>
+        <v>45412</v>
       </c>
       <c r="T21" s="1">
         <v>1.7708333333333302E-2</v>
@@ -2325,7 +2303,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45411</v>
+        <v>45413</v>
       </c>
       <c r="H22" s="1">
         <v>3.7499999999999999E-2</v>
@@ -2359,7 +2337,7 @@
       </c>
       <c r="S22" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45411</v>
+        <v>45413</v>
       </c>
       <c r="T22" s="1">
         <v>1.8749999999999999E-2</v>
@@ -2380,7 +2358,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45412</v>
+        <v>45414</v>
       </c>
       <c r="H23" s="1">
         <v>3.9583333333333297E-2</v>
@@ -2410,7 +2388,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45412</v>
+        <v>45414</v>
       </c>
       <c r="T23" s="1">
         <v>1.97916666666667E-2</v>
@@ -2431,7 +2409,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45413</v>
+        <v>45415</v>
       </c>
       <c r="H24" s="1">
         <v>4.1666666666666699E-2</v>
@@ -2461,7 +2439,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45413</v>
+        <v>45415</v>
       </c>
       <c r="T24" s="1">
         <v>2.0833333333333301E-2</v>
@@ -2482,7 +2460,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45414</v>
+        <v>45416</v>
       </c>
       <c r="H25" s="1">
         <v>4.3749999999999997E-2</v>
@@ -2512,7 +2490,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45414</v>
+        <v>45416</v>
       </c>
       <c r="T25" s="1">
         <v>2.1874999999999999E-2</v>
@@ -2533,7 +2511,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45415</v>
+        <v>45417</v>
       </c>
       <c r="H26" s="1">
         <v>4.5833333333333302E-2</v>
@@ -2563,7 +2541,7 @@
       <c r="R26" s="2"/>
       <c r="S26" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45415</v>
+        <v>45417</v>
       </c>
       <c r="T26" s="1">
         <v>2.29166666666667E-2</v>
@@ -2584,7 +2562,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45416</v>
+        <v>45418</v>
       </c>
       <c r="H27" s="1">
         <v>4.7916666666666698E-2</v>
@@ -2614,7 +2592,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45416</v>
+        <v>45418</v>
       </c>
       <c r="T27" s="1">
         <v>2.39583333333333E-2</v>
@@ -2635,7 +2613,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45417</v>
+        <v>45419</v>
       </c>
       <c r="H28" s="1">
         <v>0.05</v>
@@ -2665,7 +2643,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45417</v>
+        <v>45419</v>
       </c>
       <c r="T28" s="1">
         <v>2.5000000000000001E-2</v>
@@ -2686,7 +2664,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45418</v>
+        <v>45420</v>
       </c>
       <c r="H29" s="1">
         <v>5.2083333333333301E-2</v>
@@ -2716,7 +2694,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45418</v>
+        <v>45420</v>
       </c>
       <c r="T29" s="1">
         <v>2.6041666666666699E-2</v>
@@ -2737,7 +2715,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45419</v>
+        <v>45421</v>
       </c>
       <c r="H30" s="1">
         <v>5.4166666666666703E-2</v>
@@ -2767,7 +2745,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45419</v>
+        <v>45421</v>
       </c>
       <c r="T30" s="1">
         <v>2.70833333333333E-2</v>
@@ -2788,7 +2766,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45420</v>
+        <v>45422</v>
       </c>
       <c r="H31" s="1">
         <v>5.6250000000000001E-2</v>
@@ -2818,7 +2796,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45420</v>
+        <v>45422</v>
       </c>
       <c r="T31" s="1">
         <v>2.8125000000000001E-2</v>
@@ -2839,7 +2817,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45421</v>
+        <v>45423</v>
       </c>
       <c r="H32" s="1">
         <v>5.83333333333333E-2</v>
@@ -2869,7 +2847,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45421</v>
+        <v>45423</v>
       </c>
       <c r="T32" s="1">
         <v>2.9166666666666698E-2</v>
@@ -2890,7 +2868,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45422</v>
+        <v>45424</v>
       </c>
       <c r="H33" s="1">
         <v>6.0416666666666702E-2</v>
@@ -2920,7 +2898,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45422</v>
+        <v>45424</v>
       </c>
       <c r="T33" s="1">
         <v>3.0208333333333299E-2</v>
@@ -2941,7 +2919,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45423</v>
+        <v>45425</v>
       </c>
       <c r="H34" s="1">
         <v>6.25E-2</v>
@@ -2971,7 +2949,7 @@
       <c r="R34" s="2"/>
       <c r="S34" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45423</v>
+        <v>45425</v>
       </c>
       <c r="T34" s="1">
         <v>3.125E-2</v>
@@ -2992,7 +2970,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45424</v>
+        <v>45426</v>
       </c>
       <c r="H35" s="1">
         <v>6.4583333333333298E-2</v>
@@ -3022,7 +3000,7 @@
       <c r="R35" s="2"/>
       <c r="S35" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45424</v>
+        <v>45426</v>
       </c>
       <c r="T35" s="1">
         <v>3.2291666666666698E-2</v>
@@ -3043,7 +3021,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45425</v>
+        <v>45427</v>
       </c>
       <c r="H36" s="1">
         <v>6.6666666666666693E-2</v>
@@ -3073,7 +3051,7 @@
       <c r="R36" s="2"/>
       <c r="S36" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45425</v>
+        <v>45427</v>
       </c>
       <c r="T36" s="1">
         <v>3.3333333333333298E-2</v>
@@ -3094,7 +3072,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45426</v>
+        <v>45428</v>
       </c>
       <c r="H37" s="1">
         <v>6.8750000000000006E-2</v>
@@ -3124,7 +3102,7 @@
       <c r="R37" s="2"/>
       <c r="S37" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45426</v>
+        <v>45428</v>
       </c>
       <c r="T37" s="1">
         <v>3.4375000000000003E-2</v>
@@ -3145,7 +3123,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45427</v>
+        <v>45429</v>
       </c>
       <c r="H38" s="1">
         <v>7.0833333333333304E-2</v>
@@ -3175,7 +3153,7 @@
       <c r="R38" s="2"/>
       <c r="S38" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45427</v>
+        <v>45429</v>
       </c>
       <c r="T38" s="1">
         <v>3.54166666666667E-2</v>
@@ -3196,7 +3174,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45428</v>
+        <v>45430</v>
       </c>
       <c r="H39" s="1">
         <v>7.2916666666666699E-2</v>
@@ -3226,7 +3204,7 @@
       <c r="R39" s="2"/>
       <c r="S39" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45428</v>
+        <v>45430</v>
       </c>
       <c r="T39" s="1">
         <v>3.6458333333333301E-2</v>
@@ -3247,7 +3225,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45429</v>
+        <v>45431</v>
       </c>
       <c r="H40" s="1">
         <v>7.4999999999999997E-2</v>
@@ -3277,7 +3255,7 @@
       <c r="R40" s="2"/>
       <c r="S40" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45429</v>
+        <v>45431</v>
       </c>
       <c r="T40" s="1">
         <v>3.7499999999999999E-2</v>
@@ -3298,7 +3276,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45430</v>
+        <v>45432</v>
       </c>
       <c r="H41" s="1">
         <v>7.7083333333333295E-2</v>
@@ -3324,7 +3302,7 @@
       <c r="R41" s="2"/>
       <c r="S41" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45430</v>
+        <v>45432</v>
       </c>
       <c r="T41" s="1">
         <v>3.8541666666666703E-2</v>
@@ -3345,7 +3323,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45431</v>
+        <v>45433</v>
       </c>
       <c r="H42" s="1">
         <v>7.9166666666666705E-2</v>
@@ -3371,7 +3349,7 @@
       <c r="R42" s="2"/>
       <c r="S42" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45431</v>
+        <v>45433</v>
       </c>
       <c r="T42" s="1">
         <v>3.9583333333333297E-2</v>
@@ -3392,7 +3370,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45432</v>
+        <v>45434</v>
       </c>
       <c r="H43" s="1">
         <v>8.1250000000000003E-2</v>
@@ -3418,7 +3396,7 @@
       <c r="R43" s="2"/>
       <c r="S43" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45432</v>
+        <v>45434</v>
       </c>
       <c r="T43" s="1">
         <v>4.1666666666666664E-2</v>
@@ -3439,7 +3417,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45433</v>
+        <v>45435</v>
       </c>
       <c r="H44" s="1">
         <v>8.3333333333333301E-2</v>
@@ -3465,7 +3443,7 @@
       <c r="R44" s="2"/>
       <c r="S44" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45433</v>
+        <v>45435</v>
       </c>
       <c r="T44" s="1">
         <v>4.5833333333333302E-2</v>
@@ -3486,7 +3464,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45434</v>
+        <v>45436</v>
       </c>
       <c r="H45" s="1">
         <v>8.5416666666666696E-2</v>
@@ -3512,7 +3490,7 @@
       <c r="R45" s="2"/>
       <c r="S45" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45434</v>
+        <v>45436</v>
       </c>
       <c r="T45" s="1">
         <v>4.9999999999999899E-2</v>
@@ -3533,7 +3511,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45435</v>
+        <v>45437</v>
       </c>
       <c r="H46" s="1">
         <v>8.7499999999999994E-2</v>
@@ -3559,7 +3537,7 @@
       <c r="R46" s="2"/>
       <c r="S46" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45435</v>
+        <v>45437</v>
       </c>
       <c r="T46" s="1">
         <v>5.4166666666666599E-2</v>
@@ -3580,7 +3558,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45436</v>
+        <v>45438</v>
       </c>
       <c r="H47" s="1">
         <v>8.9583333333333307E-2</v>
@@ -3606,7 +3584,7 @@
       <c r="R47" s="2"/>
       <c r="S47" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45436</v>
+        <v>45438</v>
       </c>
       <c r="T47" s="1">
         <v>5.83333333333333E-2</v>
@@ -3627,7 +3605,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45437</v>
+        <v>45439</v>
       </c>
       <c r="H48" s="1">
         <v>9.1666666666666702E-2</v>
@@ -3653,7 +3631,7 @@
       <c r="R48" s="2"/>
       <c r="S48" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45437</v>
+        <v>45439</v>
       </c>
       <c r="T48" s="1">
         <v>6.2499999999999903E-2</v>
@@ -3674,7 +3652,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45438</v>
+        <v>45440</v>
       </c>
       <c r="H49" s="1">
         <v>9.375E-2</v>
@@ -3700,7 +3678,7 @@
       <c r="R49" s="2"/>
       <c r="S49" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45438</v>
+        <v>45440</v>
       </c>
       <c r="T49" s="1">
         <v>6.6666666666666499E-2</v>
@@ -3721,7 +3699,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45439</v>
+        <v>45441</v>
       </c>
       <c r="H50" s="1">
         <v>9.5833333333333298E-2</v>
@@ -3747,7 +3725,7 @@
       <c r="R50" s="2"/>
       <c r="S50" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45439</v>
+        <v>45441</v>
       </c>
       <c r="T50" s="1">
         <v>7.0833333333333207E-2</v>
@@ -3768,7 +3746,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45440</v>
+        <v>45442</v>
       </c>
       <c r="H51" s="1">
         <v>9.7916666666666693E-2</v>
@@ -3794,7 +3772,7 @@
       <c r="R51" s="2"/>
       <c r="S51" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45440</v>
+        <v>45442</v>
       </c>
       <c r="T51" s="1">
         <v>7.4999999999999803E-2</v>
@@ -3815,7 +3793,7 @@
       <c r="F52" s="2"/>
       <c r="G52" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45441</v>
+        <v>45443</v>
       </c>
       <c r="H52" s="1">
         <v>0.1</v>
@@ -3841,7 +3819,7 @@
       <c r="R52" s="2"/>
       <c r="S52" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45441</v>
+        <v>45443</v>
       </c>
       <c r="T52" s="1">
         <v>7.9166666666666399E-2</v>
@@ -3862,7 +3840,7 @@
       <c r="F53" s="2"/>
       <c r="G53" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45442</v>
+        <v>45444</v>
       </c>
       <c r="H53" s="1">
         <v>0.102083333333333</v>
@@ -3888,7 +3866,7 @@
       <c r="R53" s="2"/>
       <c r="S53" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45442</v>
+        <v>45444</v>
       </c>
       <c r="T53" s="1">
         <v>8.3333333333333107E-2</v>
@@ -3909,7 +3887,7 @@
       <c r="F54" s="2"/>
       <c r="G54" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45443</v>
+        <v>45445</v>
       </c>
       <c r="H54" s="1">
         <v>0.104166666666667</v>
@@ -3935,7 +3913,7 @@
       <c r="R54" s="2"/>
       <c r="S54" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45443</v>
+        <v>45445</v>
       </c>
       <c r="T54" s="1">
         <v>9.0277777777777776E-2</v>
@@ -3956,7 +3934,7 @@
       <c r="F55" s="2"/>
       <c r="G55" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45444</v>
+        <v>45446</v>
       </c>
       <c r="H55" s="1">
         <v>0.10625</v>
@@ -3982,7 +3960,7 @@
       <c r="R55" s="2"/>
       <c r="S55" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45444</v>
+        <v>45446</v>
       </c>
       <c r="T55" s="1">
         <v>9.7222222222222404E-2</v>
@@ -4003,7 +3981,7 @@
       <c r="F56" s="2"/>
       <c r="G56" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45445</v>
+        <v>45447</v>
       </c>
       <c r="H56" s="1">
         <v>0.108333333333333</v>
@@ -4029,7 +4007,7 @@
       <c r="R56" s="2"/>
       <c r="S56" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45445</v>
+        <v>45447</v>
       </c>
       <c r="T56" s="1">
         <v>0.104166666666667</v>
@@ -4050,7 +4028,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45446</v>
+        <v>45448</v>
       </c>
       <c r="H57" s="1">
         <v>0.110416666666667</v>
@@ -4076,7 +4054,7 @@
       <c r="R57" s="2"/>
       <c r="S57" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45446</v>
+        <v>45448</v>
       </c>
       <c r="T57" s="1">
         <v>0.11111111111111199</v>
@@ -4097,7 +4075,7 @@
       <c r="F58" s="2"/>
       <c r="G58" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45447</v>
+        <v>45449</v>
       </c>
       <c r="H58" s="1">
         <v>0.1125</v>
@@ -4123,7 +4101,7 @@
       <c r="R58" s="2"/>
       <c r="S58" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45447</v>
+        <v>45449</v>
       </c>
       <c r="T58" s="1">
         <v>0.118055555555556</v>
@@ -4144,7 +4122,7 @@
       <c r="F59" s="2"/>
       <c r="G59" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45448</v>
+        <v>45450</v>
       </c>
       <c r="H59" s="1">
         <v>0.114583333333333</v>
@@ -4170,7 +4148,7 @@
       <c r="R59" s="2"/>
       <c r="S59" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45448</v>
+        <v>45450</v>
       </c>
       <c r="T59" s="1">
         <v>0.125000000000001</v>
@@ -4191,7 +4169,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45449</v>
+        <v>45451</v>
       </c>
       <c r="H60" s="1">
         <v>0.116666666666667</v>
@@ -4217,7 +4195,7 @@
       <c r="R60" s="2"/>
       <c r="S60" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45449</v>
+        <v>45451</v>
       </c>
       <c r="T60" s="1">
         <v>0.131944444444446</v>
@@ -4238,7 +4216,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45450</v>
+        <v>45452</v>
       </c>
       <c r="H61" s="1">
         <v>0.11874999999999999</v>
@@ -4264,7 +4242,7 @@
       <c r="R61" s="2"/>
       <c r="S61" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45450</v>
+        <v>45452</v>
       </c>
       <c r="T61" s="1">
         <v>0.138888888888891</v>
@@ -4285,7 +4263,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45451</v>
+        <v>45453</v>
       </c>
       <c r="H62" s="1">
         <v>0.120833333333333</v>
@@ -4325,7 +4303,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45452</v>
+        <v>45454</v>
       </c>
       <c r="H63" s="1">
         <v>0.12291666666666699</v>
@@ -4365,7 +4343,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45453</v>
+        <v>45455</v>
       </c>
       <c r="H64" s="1">
         <v>0.125</v>
@@ -4405,7 +4383,7 @@
       <c r="F65" s="2"/>
       <c r="G65" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45454</v>
+        <v>45456</v>
       </c>
       <c r="H65" s="1">
         <v>0.12708333333333299</v>
@@ -4445,7 +4423,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45455</v>
+        <v>45457</v>
       </c>
       <c r="H66" s="1">
         <v>0.12916666666666701</v>
@@ -4485,7 +4463,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45456</v>
+        <v>45458</v>
       </c>
       <c r="H67" s="1">
         <v>0.13125000000000001</v>
@@ -4525,7 +4503,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45457</v>
+        <v>45459</v>
       </c>
       <c r="H68" s="1">
         <v>0.133333333333333</v>
@@ -4565,7 +4543,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45458</v>
+        <v>45460</v>
       </c>
       <c r="H69" s="1">
         <v>0.13541666666666699</v>
@@ -4605,7 +4583,7 @@
       <c r="F70" s="2"/>
       <c r="G70" s="15">
         <f t="shared" ref="G70:G71" ca="1" si="4">G69+1</f>
-        <v>45459</v>
+        <v>45461</v>
       </c>
       <c r="H70" s="1">
         <v>0.13750000000000001</v>
@@ -4645,7 +4623,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>45460</v>
+        <v>45462</v>
       </c>
       <c r="H71" s="1">
         <v>0.139583333333333</v>

--- a/track.xlsx
+++ b/track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mosta\OneDrive\Desktop\dashboard-V.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C70E4B2-C429-47FA-82BF-179EF952784D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E28CFA-CB4D-45D0-8957-7CAA8873F2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Learn Next.js 13 With This One Project - TODO LIST</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -986,7 +989,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -1070,11 +1073,11 @@
       <c r="D2" s="17"/>
       <c r="E2" s="6">
         <f ca="1">(E3+(F3/60))/60</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F2" s="7">
         <f ca="1">(E3+(F3/60))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
@@ -1128,7 +1131,7 @@
       </c>
       <c r="E3" s="8">
         <f ca="1">SUMIF(Table223[CHECK],"Done",E$4:E$60)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F3" s="8">
         <f ca="1">SUMIF(Table223[CHECK],"Done",F$4:F$60)</f>
@@ -1197,7 +1200,6 @@
     </row>
     <row r="4" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
-        <f ca="1">TODAY()</f>
         <v>45395</v>
       </c>
       <c r="B4" s="1">
@@ -1206,7 +1208,9 @@
       <c r="C4" s="1">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="E4" s="2">
         <v>3</v>
       </c>
@@ -1262,7 +1266,7 @@
     </row>
     <row r="5" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
-        <f ca="1">A4+1</f>
+        <f>A4+1</f>
         <v>45396</v>
       </c>
       <c r="B5" s="1">
@@ -1271,7 +1275,9 @@
       <c r="C5" s="1">
         <v>4.1666666666666701E-3</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="E5" s="2">
         <v>3</v>
       </c>
@@ -1328,7 +1334,7 @@
     </row>
     <row r="6" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15">
-        <f t="shared" ref="A6:A13" ca="1" si="0">A5+1</f>
+        <f t="shared" ref="A6:A13" si="0">A5+1</f>
         <v>45397</v>
       </c>
       <c r="B6" s="1">
@@ -1394,7 +1400,7 @@
     </row>
     <row r="7" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45398</v>
       </c>
       <c r="B7" s="1">
@@ -1460,7 +1466,7 @@
     </row>
     <row r="8" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45399</v>
       </c>
       <c r="B8" s="1">
@@ -1526,7 +1532,7 @@
     </row>
     <row r="9" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45400</v>
       </c>
       <c r="B9" s="1">
@@ -1592,7 +1598,7 @@
     </row>
     <row r="10" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45401</v>
       </c>
       <c r="B10" s="1">
@@ -1658,7 +1664,7 @@
     </row>
     <row r="11" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45402</v>
       </c>
       <c r="B11" s="1">
@@ -1724,7 +1730,7 @@
     </row>
     <row r="12" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45403</v>
       </c>
       <c r="B12" s="1">
@@ -1790,7 +1796,7 @@
     </row>
     <row r="13" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45404</v>
       </c>
       <c r="B13" s="1">

--- a/track.xlsx
+++ b/track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mosta\OneDrive\Desktop\dashboard-V.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E28CFA-CB4D-45D0-8957-7CAA8873F2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB948985-09C1-4F32-9EFC-2FDA77BA6073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -989,7 +989,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -1073,11 +1073,11 @@
       <c r="D2" s="17"/>
       <c r="E2" s="6">
         <f ca="1">(E3+(F3/60))/60</f>
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F2" s="7">
         <f ca="1">(E3+(F3/60))</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="E3" s="8">
         <f ca="1">SUMIF(Table223[CHECK],"Done",E$4:E$60)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F3" s="8">
         <f ca="1">SUMIF(Table223[CHECK],"Done",F$4:F$60)</f>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="G4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45395</v>
+        <v>45396</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="S4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45395</v>
+        <v>45396</v>
       </c>
       <c r="T4" s="1">
         <v>0</v>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="G5" s="15">
         <f ca="1">G4+1</f>
-        <v>45396</v>
+        <v>45397</v>
       </c>
       <c r="H5" s="1">
         <v>2.0833333333333333E-3</v>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="S5" s="15">
         <f ca="1">S4+1</f>
-        <v>45396</v>
+        <v>45397</v>
       </c>
       <c r="T5" s="1">
         <v>1.0416666666666667E-3</v>
@@ -1343,7 +1343,9 @@
       <c r="C6" s="1">
         <v>6.2500000000000003E-3</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="E6" s="2">
         <v>3</v>
       </c>
@@ -1352,7 +1354,7 @@
       </c>
       <c r="G6" s="15">
         <f t="shared" ref="G6:G69" ca="1" si="1">G5+1</f>
-        <v>45397</v>
+        <v>45398</v>
       </c>
       <c r="H6" s="1">
         <v>4.1666666666666701E-3</v>
@@ -1386,7 +1388,7 @@
       </c>
       <c r="S6" s="15">
         <f t="shared" ref="S6:S61" ca="1" si="3">S5+1</f>
-        <v>45397</v>
+        <v>45398</v>
       </c>
       <c r="T6" s="1">
         <v>2.0833333333333298E-3</v>
@@ -1418,7 +1420,7 @@
       </c>
       <c r="G7" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45398</v>
+        <v>45399</v>
       </c>
       <c r="H7" s="1">
         <v>6.2500000000000003E-3</v>
@@ -1452,7 +1454,7 @@
       </c>
       <c r="S7" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45398</v>
+        <v>45399</v>
       </c>
       <c r="T7" s="1">
         <v>3.1250000000000002E-3</v>
@@ -1484,7 +1486,7 @@
       </c>
       <c r="G8" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45399</v>
+        <v>45400</v>
       </c>
       <c r="H8" s="1">
         <v>8.3333333333333297E-3</v>
@@ -1518,7 +1520,7 @@
       </c>
       <c r="S8" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45399</v>
+        <v>45400</v>
       </c>
       <c r="T8" s="1">
         <v>4.1666666666666701E-3</v>
@@ -1550,7 +1552,7 @@
       </c>
       <c r="G9" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45400</v>
+        <v>45401</v>
       </c>
       <c r="H9" s="1">
         <v>1.0416666666666701E-2</v>
@@ -1584,7 +1586,7 @@
       </c>
       <c r="S9" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45400</v>
+        <v>45401</v>
       </c>
       <c r="T9" s="1">
         <v>5.2083333333333296E-3</v>
@@ -1616,7 +1618,7 @@
       </c>
       <c r="G10" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45401</v>
+        <v>45402</v>
       </c>
       <c r="H10" s="1">
         <v>1.2500000000000001E-2</v>
@@ -1650,7 +1652,7 @@
       </c>
       <c r="S10" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45401</v>
+        <v>45402</v>
       </c>
       <c r="T10" s="1">
         <v>6.2500000000000003E-3</v>
@@ -1682,7 +1684,7 @@
       </c>
       <c r="G11" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45402</v>
+        <v>45403</v>
       </c>
       <c r="H11" s="1">
         <v>1.4583333333333301E-2</v>
@@ -1716,7 +1718,7 @@
       </c>
       <c r="S11" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45402</v>
+        <v>45403</v>
       </c>
       <c r="T11" s="1">
         <v>7.2916666666666703E-3</v>
@@ -1748,7 +1750,7 @@
       </c>
       <c r="G12" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45403</v>
+        <v>45404</v>
       </c>
       <c r="H12" s="1">
         <v>1.6666666666666701E-2</v>
@@ -1782,7 +1784,7 @@
       </c>
       <c r="S12" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45403</v>
+        <v>45404</v>
       </c>
       <c r="T12" s="1">
         <v>8.3333333333333297E-3</v>
@@ -1814,7 +1816,7 @@
       </c>
       <c r="G13" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="H13" s="1">
         <v>1.8749999999999999E-2</v>
@@ -1848,7 +1850,7 @@
       </c>
       <c r="S13" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="T13" s="1">
         <v>9.3749999999999997E-3</v>
@@ -1869,7 +1871,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="H14" s="1">
         <v>2.0833333333333301E-2</v>
@@ -1903,7 +1905,7 @@
       </c>
       <c r="S14" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="T14" s="1">
         <v>1.0416666666666701E-2</v>
@@ -1924,7 +1926,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45406</v>
+        <v>45407</v>
       </c>
       <c r="H15" s="1">
         <v>2.29166666666667E-2</v>
@@ -1958,7 +1960,7 @@
       </c>
       <c r="S15" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45406</v>
+        <v>45407</v>
       </c>
       <c r="T15" s="1">
         <v>1.14583333333333E-2</v>
@@ -1979,7 +1981,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45407</v>
+        <v>45408</v>
       </c>
       <c r="H16" s="1">
         <v>2.5000000000000001E-2</v>
@@ -2013,7 +2015,7 @@
       </c>
       <c r="S16" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45407</v>
+        <v>45408</v>
       </c>
       <c r="T16" s="1">
         <v>1.2500000000000001E-2</v>
@@ -2034,7 +2036,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45408</v>
+        <v>45409</v>
       </c>
       <c r="H17" s="1">
         <v>2.70833333333333E-2</v>
@@ -2068,7 +2070,7 @@
       </c>
       <c r="S17" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45408</v>
+        <v>45409</v>
       </c>
       <c r="T17" s="1">
         <v>1.35416666666667E-2</v>
@@ -2089,7 +2091,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45409</v>
+        <v>45410</v>
       </c>
       <c r="H18" s="1">
         <v>2.9166666666666698E-2</v>
@@ -2123,7 +2125,7 @@
       </c>
       <c r="S18" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45409</v>
+        <v>45410</v>
       </c>
       <c r="T18" s="1">
         <v>1.4583333333333301E-2</v>
@@ -2144,7 +2146,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45410</v>
+        <v>45411</v>
       </c>
       <c r="H19" s="1">
         <v>3.125E-2</v>
@@ -2178,7 +2180,7 @@
       </c>
       <c r="S19" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45410</v>
+        <v>45411</v>
       </c>
       <c r="T19" s="1">
         <v>1.5625E-2</v>
@@ -2199,7 +2201,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="H20" s="1">
         <v>3.3333333333333298E-2</v>
@@ -2233,7 +2235,7 @@
       </c>
       <c r="S20" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="T20" s="1">
         <v>1.6666666666666701E-2</v>
@@ -2254,7 +2256,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="H21" s="1">
         <v>3.54166666666667E-2</v>
@@ -2288,7 +2290,7 @@
       </c>
       <c r="S21" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="T21" s="1">
         <v>1.7708333333333302E-2</v>
@@ -2309,7 +2311,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="H22" s="1">
         <v>3.7499999999999999E-2</v>
@@ -2343,7 +2345,7 @@
       </c>
       <c r="S22" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="T22" s="1">
         <v>1.8749999999999999E-2</v>
@@ -2364,7 +2366,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="H23" s="1">
         <v>3.9583333333333297E-2</v>
@@ -2394,7 +2396,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="T23" s="1">
         <v>1.97916666666667E-2</v>
@@ -2415,7 +2417,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45415</v>
+        <v>45416</v>
       </c>
       <c r="H24" s="1">
         <v>4.1666666666666699E-2</v>
@@ -2445,7 +2447,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45415</v>
+        <v>45416</v>
       </c>
       <c r="T24" s="1">
         <v>2.0833333333333301E-2</v>
@@ -2466,7 +2468,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45416</v>
+        <v>45417</v>
       </c>
       <c r="H25" s="1">
         <v>4.3749999999999997E-2</v>
@@ -2496,7 +2498,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45416</v>
+        <v>45417</v>
       </c>
       <c r="T25" s="1">
         <v>2.1874999999999999E-2</v>
@@ -2517,7 +2519,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45417</v>
+        <v>45418</v>
       </c>
       <c r="H26" s="1">
         <v>4.5833333333333302E-2</v>
@@ -2547,7 +2549,7 @@
       <c r="R26" s="2"/>
       <c r="S26" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45417</v>
+        <v>45418</v>
       </c>
       <c r="T26" s="1">
         <v>2.29166666666667E-2</v>
@@ -2568,7 +2570,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45418</v>
+        <v>45419</v>
       </c>
       <c r="H27" s="1">
         <v>4.7916666666666698E-2</v>
@@ -2598,7 +2600,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45418</v>
+        <v>45419</v>
       </c>
       <c r="T27" s="1">
         <v>2.39583333333333E-2</v>
@@ -2619,7 +2621,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="H28" s="1">
         <v>0.05</v>
@@ -2649,7 +2651,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="T28" s="1">
         <v>2.5000000000000001E-2</v>
@@ -2670,7 +2672,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45420</v>
+        <v>45421</v>
       </c>
       <c r="H29" s="1">
         <v>5.2083333333333301E-2</v>
@@ -2700,7 +2702,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45420</v>
+        <v>45421</v>
       </c>
       <c r="T29" s="1">
         <v>2.6041666666666699E-2</v>
@@ -2721,7 +2723,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45421</v>
+        <v>45422</v>
       </c>
       <c r="H30" s="1">
         <v>5.4166666666666703E-2</v>
@@ -2751,7 +2753,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45421</v>
+        <v>45422</v>
       </c>
       <c r="T30" s="1">
         <v>2.70833333333333E-2</v>
@@ -2772,7 +2774,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45422</v>
+        <v>45423</v>
       </c>
       <c r="H31" s="1">
         <v>5.6250000000000001E-2</v>
@@ -2802,7 +2804,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45422</v>
+        <v>45423</v>
       </c>
       <c r="T31" s="1">
         <v>2.8125000000000001E-2</v>
@@ -2823,7 +2825,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45423</v>
+        <v>45424</v>
       </c>
       <c r="H32" s="1">
         <v>5.83333333333333E-2</v>
@@ -2853,7 +2855,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45423</v>
+        <v>45424</v>
       </c>
       <c r="T32" s="1">
         <v>2.9166666666666698E-2</v>
@@ -2874,7 +2876,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45424</v>
+        <v>45425</v>
       </c>
       <c r="H33" s="1">
         <v>6.0416666666666702E-2</v>
@@ -2904,7 +2906,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45424</v>
+        <v>45425</v>
       </c>
       <c r="T33" s="1">
         <v>3.0208333333333299E-2</v>
@@ -2925,7 +2927,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45425</v>
+        <v>45426</v>
       </c>
       <c r="H34" s="1">
         <v>6.25E-2</v>
@@ -2955,7 +2957,7 @@
       <c r="R34" s="2"/>
       <c r="S34" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45425</v>
+        <v>45426</v>
       </c>
       <c r="T34" s="1">
         <v>3.125E-2</v>
@@ -2976,7 +2978,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45426</v>
+        <v>45427</v>
       </c>
       <c r="H35" s="1">
         <v>6.4583333333333298E-2</v>
@@ -3006,7 +3008,7 @@
       <c r="R35" s="2"/>
       <c r="S35" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45426</v>
+        <v>45427</v>
       </c>
       <c r="T35" s="1">
         <v>3.2291666666666698E-2</v>
@@ -3027,7 +3029,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45427</v>
+        <v>45428</v>
       </c>
       <c r="H36" s="1">
         <v>6.6666666666666693E-2</v>
@@ -3057,7 +3059,7 @@
       <c r="R36" s="2"/>
       <c r="S36" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45427</v>
+        <v>45428</v>
       </c>
       <c r="T36" s="1">
         <v>3.3333333333333298E-2</v>
@@ -3078,7 +3080,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45428</v>
+        <v>45429</v>
       </c>
       <c r="H37" s="1">
         <v>6.8750000000000006E-2</v>
@@ -3108,7 +3110,7 @@
       <c r="R37" s="2"/>
       <c r="S37" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45428</v>
+        <v>45429</v>
       </c>
       <c r="T37" s="1">
         <v>3.4375000000000003E-2</v>
@@ -3129,7 +3131,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45429</v>
+        <v>45430</v>
       </c>
       <c r="H38" s="1">
         <v>7.0833333333333304E-2</v>
@@ -3159,7 +3161,7 @@
       <c r="R38" s="2"/>
       <c r="S38" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45429</v>
+        <v>45430</v>
       </c>
       <c r="T38" s="1">
         <v>3.54166666666667E-2</v>
@@ -3180,7 +3182,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45430</v>
+        <v>45431</v>
       </c>
       <c r="H39" s="1">
         <v>7.2916666666666699E-2</v>
@@ -3210,7 +3212,7 @@
       <c r="R39" s="2"/>
       <c r="S39" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45430</v>
+        <v>45431</v>
       </c>
       <c r="T39" s="1">
         <v>3.6458333333333301E-2</v>
@@ -3231,7 +3233,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45431</v>
+        <v>45432</v>
       </c>
       <c r="H40" s="1">
         <v>7.4999999999999997E-2</v>
@@ -3261,7 +3263,7 @@
       <c r="R40" s="2"/>
       <c r="S40" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45431</v>
+        <v>45432</v>
       </c>
       <c r="T40" s="1">
         <v>3.7499999999999999E-2</v>
@@ -3282,7 +3284,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45432</v>
+        <v>45433</v>
       </c>
       <c r="H41" s="1">
         <v>7.7083333333333295E-2</v>
@@ -3308,7 +3310,7 @@
       <c r="R41" s="2"/>
       <c r="S41" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45432</v>
+        <v>45433</v>
       </c>
       <c r="T41" s="1">
         <v>3.8541666666666703E-2</v>
@@ -3329,7 +3331,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45433</v>
+        <v>45434</v>
       </c>
       <c r="H42" s="1">
         <v>7.9166666666666705E-2</v>
@@ -3355,7 +3357,7 @@
       <c r="R42" s="2"/>
       <c r="S42" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45433</v>
+        <v>45434</v>
       </c>
       <c r="T42" s="1">
         <v>3.9583333333333297E-2</v>
@@ -3376,7 +3378,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="H43" s="1">
         <v>8.1250000000000003E-2</v>
@@ -3402,7 +3404,7 @@
       <c r="R43" s="2"/>
       <c r="S43" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="T43" s="1">
         <v>4.1666666666666664E-2</v>
@@ -3423,7 +3425,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45435</v>
+        <v>45436</v>
       </c>
       <c r="H44" s="1">
         <v>8.3333333333333301E-2</v>
@@ -3449,7 +3451,7 @@
       <c r="R44" s="2"/>
       <c r="S44" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45435</v>
+        <v>45436</v>
       </c>
       <c r="T44" s="1">
         <v>4.5833333333333302E-2</v>
@@ -3470,7 +3472,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="H45" s="1">
         <v>8.5416666666666696E-2</v>
@@ -3496,7 +3498,7 @@
       <c r="R45" s="2"/>
       <c r="S45" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="T45" s="1">
         <v>4.9999999999999899E-2</v>
@@ -3517,7 +3519,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45437</v>
+        <v>45438</v>
       </c>
       <c r="H46" s="1">
         <v>8.7499999999999994E-2</v>
@@ -3543,7 +3545,7 @@
       <c r="R46" s="2"/>
       <c r="S46" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45437</v>
+        <v>45438</v>
       </c>
       <c r="T46" s="1">
         <v>5.4166666666666599E-2</v>
@@ -3564,7 +3566,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45438</v>
+        <v>45439</v>
       </c>
       <c r="H47" s="1">
         <v>8.9583333333333307E-2</v>
@@ -3590,7 +3592,7 @@
       <c r="R47" s="2"/>
       <c r="S47" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45438</v>
+        <v>45439</v>
       </c>
       <c r="T47" s="1">
         <v>5.83333333333333E-2</v>
@@ -3611,7 +3613,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45439</v>
+        <v>45440</v>
       </c>
       <c r="H48" s="1">
         <v>9.1666666666666702E-2</v>
@@ -3637,7 +3639,7 @@
       <c r="R48" s="2"/>
       <c r="S48" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45439</v>
+        <v>45440</v>
       </c>
       <c r="T48" s="1">
         <v>6.2499999999999903E-2</v>
@@ -3658,7 +3660,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45440</v>
+        <v>45441</v>
       </c>
       <c r="H49" s="1">
         <v>9.375E-2</v>
@@ -3684,7 +3686,7 @@
       <c r="R49" s="2"/>
       <c r="S49" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45440</v>
+        <v>45441</v>
       </c>
       <c r="T49" s="1">
         <v>6.6666666666666499E-2</v>
@@ -3705,7 +3707,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="H50" s="1">
         <v>9.5833333333333298E-2</v>
@@ -3731,7 +3733,7 @@
       <c r="R50" s="2"/>
       <c r="S50" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="T50" s="1">
         <v>7.0833333333333207E-2</v>
@@ -3752,7 +3754,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="H51" s="1">
         <v>9.7916666666666693E-2</v>
@@ -3778,7 +3780,7 @@
       <c r="R51" s="2"/>
       <c r="S51" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="T51" s="1">
         <v>7.4999999999999803E-2</v>
@@ -3799,7 +3801,7 @@
       <c r="F52" s="2"/>
       <c r="G52" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="H52" s="1">
         <v>0.1</v>
@@ -3825,7 +3827,7 @@
       <c r="R52" s="2"/>
       <c r="S52" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="T52" s="1">
         <v>7.9166666666666399E-2</v>
@@ -3846,7 +3848,7 @@
       <c r="F53" s="2"/>
       <c r="G53" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45444</v>
+        <v>45445</v>
       </c>
       <c r="H53" s="1">
         <v>0.102083333333333</v>
@@ -3872,7 +3874,7 @@
       <c r="R53" s="2"/>
       <c r="S53" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45444</v>
+        <v>45445</v>
       </c>
       <c r="T53" s="1">
         <v>8.3333333333333107E-2</v>
@@ -3893,7 +3895,7 @@
       <c r="F54" s="2"/>
       <c r="G54" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45445</v>
+        <v>45446</v>
       </c>
       <c r="H54" s="1">
         <v>0.104166666666667</v>
@@ -3919,7 +3921,7 @@
       <c r="R54" s="2"/>
       <c r="S54" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45445</v>
+        <v>45446</v>
       </c>
       <c r="T54" s="1">
         <v>9.0277777777777776E-2</v>
@@ -3940,7 +3942,7 @@
       <c r="F55" s="2"/>
       <c r="G55" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45446</v>
+        <v>45447</v>
       </c>
       <c r="H55" s="1">
         <v>0.10625</v>
@@ -3966,7 +3968,7 @@
       <c r="R55" s="2"/>
       <c r="S55" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45446</v>
+        <v>45447</v>
       </c>
       <c r="T55" s="1">
         <v>9.7222222222222404E-2</v>
@@ -3987,7 +3989,7 @@
       <c r="F56" s="2"/>
       <c r="G56" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="H56" s="1">
         <v>0.108333333333333</v>
@@ -4013,7 +4015,7 @@
       <c r="R56" s="2"/>
       <c r="S56" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="T56" s="1">
         <v>0.104166666666667</v>
@@ -4034,7 +4036,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45448</v>
+        <v>45449</v>
       </c>
       <c r="H57" s="1">
         <v>0.110416666666667</v>
@@ -4060,7 +4062,7 @@
       <c r="R57" s="2"/>
       <c r="S57" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45448</v>
+        <v>45449</v>
       </c>
       <c r="T57" s="1">
         <v>0.11111111111111199</v>
@@ -4081,7 +4083,7 @@
       <c r="F58" s="2"/>
       <c r="G58" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45449</v>
+        <v>45450</v>
       </c>
       <c r="H58" s="1">
         <v>0.1125</v>
@@ -4107,7 +4109,7 @@
       <c r="R58" s="2"/>
       <c r="S58" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45449</v>
+        <v>45450</v>
       </c>
       <c r="T58" s="1">
         <v>0.118055555555556</v>
@@ -4128,7 +4130,7 @@
       <c r="F59" s="2"/>
       <c r="G59" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45450</v>
+        <v>45451</v>
       </c>
       <c r="H59" s="1">
         <v>0.114583333333333</v>
@@ -4154,7 +4156,7 @@
       <c r="R59" s="2"/>
       <c r="S59" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45450</v>
+        <v>45451</v>
       </c>
       <c r="T59" s="1">
         <v>0.125000000000001</v>
@@ -4175,7 +4177,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45451</v>
+        <v>45452</v>
       </c>
       <c r="H60" s="1">
         <v>0.116666666666667</v>
@@ -4201,7 +4203,7 @@
       <c r="R60" s="2"/>
       <c r="S60" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45451</v>
+        <v>45452</v>
       </c>
       <c r="T60" s="1">
         <v>0.131944444444446</v>
@@ -4222,7 +4224,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45452</v>
+        <v>45453</v>
       </c>
       <c r="H61" s="1">
         <v>0.11874999999999999</v>
@@ -4248,7 +4250,7 @@
       <c r="R61" s="2"/>
       <c r="S61" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>45452</v>
+        <v>45453</v>
       </c>
       <c r="T61" s="1">
         <v>0.138888888888891</v>
@@ -4269,7 +4271,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45453</v>
+        <v>45454</v>
       </c>
       <c r="H62" s="1">
         <v>0.120833333333333</v>
@@ -4309,7 +4311,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="H63" s="1">
         <v>0.12291666666666699</v>
@@ -4349,7 +4351,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45455</v>
+        <v>45456</v>
       </c>
       <c r="H64" s="1">
         <v>0.125</v>
@@ -4389,7 +4391,7 @@
       <c r="F65" s="2"/>
       <c r="G65" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45456</v>
+        <v>45457</v>
       </c>
       <c r="H65" s="1">
         <v>0.12708333333333299</v>
@@ -4429,7 +4431,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45457</v>
+        <v>45458</v>
       </c>
       <c r="H66" s="1">
         <v>0.12916666666666701</v>
@@ -4469,7 +4471,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45458</v>
+        <v>45459</v>
       </c>
       <c r="H67" s="1">
         <v>0.13125000000000001</v>
@@ -4509,7 +4511,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45459</v>
+        <v>45460</v>
       </c>
       <c r="H68" s="1">
         <v>0.133333333333333</v>
@@ -4549,7 +4551,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>45460</v>
+        <v>45461</v>
       </c>
       <c r="H69" s="1">
         <v>0.13541666666666699</v>
@@ -4589,7 +4591,7 @@
       <c r="F70" s="2"/>
       <c r="G70" s="15">
         <f t="shared" ref="G70:G71" ca="1" si="4">G69+1</f>
-        <v>45461</v>
+        <v>45462</v>
       </c>
       <c r="H70" s="1">
         <v>0.13750000000000001</v>
@@ -4629,7 +4631,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>45462</v>
+        <v>45463</v>
       </c>
       <c r="H71" s="1">
         <v>0.139583333333333</v>

--- a/track.xlsx
+++ b/track.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mosta\OneDrive\Desktop\dashboard-V.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB948985-09C1-4F32-9EFC-2FDA77BA6073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADECFF7-5DB6-4038-91E3-0F6750E835CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="Table3">Table6[]</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -67,6 +70,9 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Create a To-Do App with Next.js 13: Learn CRUD Operations and Tailwind CSS UI</t>
   </si>
 </sst>
 </file>
@@ -260,7 +266,106 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -671,52 +776,65 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A42150A-74BB-4659-8BE3-C38AE4DF6F2F}" name="Table22" displayName="Table22" ref="G3:J71" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="G3:J71" xr:uid="{9A42150A-74BB-4659-8BE3-C38AE4DF6F2F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A42150A-74BB-4659-8BE3-C38AE4DF6F2F}" name="Table6" displayName="Table6" ref="M3:P71" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="M3:P71" xr:uid="{9A42150A-74BB-4659-8BE3-C38AE4DF6F2F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E47A06B2-66D0-4A3B-94F5-F413F13FA3D5}" name="Date" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{263AAFE7-CED9-4BC8-BDF4-682077A1A32F}" name="FROM" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{85D092AB-1643-4507-9EDE-D374E629A267}" name="TO" dataDxfId="19" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{0B7EAA86-C05E-4B44-925F-0BC8C8A53CE4}" name="CHECK" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{E47A06B2-66D0-4A3B-94F5-F413F13FA3D5}" name="Date" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{263AAFE7-CED9-4BC8-BDF4-682077A1A32F}" name="FROM" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{85D092AB-1643-4507-9EDE-D374E629A267}" name="TO" dataDxfId="25" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{0B7EAA86-C05E-4B44-925F-0BC8C8A53CE4}" name="CHECK" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C40EC8C8-11F4-4B98-8E22-DE0BEA09C108}" name="Table224" displayName="Table224" ref="S3:V71" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="S3:V71" xr:uid="{C40EC8C8-11F4-4B98-8E22-DE0BEA09C108}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C40EC8C8-11F4-4B98-8E22-DE0BEA09C108}" name="Table5" displayName="Table5" ref="Y3:AB71" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="Y3:AB71" xr:uid="{C40EC8C8-11F4-4B98-8E22-DE0BEA09C108}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9034DB75-A35D-40DA-9B02-E245B29B906D}" name="Date" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{9D116230-888C-4DC0-9632-4961EC573E06}" name="FROM" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{A59F171F-3DF7-49EB-BCD6-30A73E3AE642}" name="TO" dataDxfId="13" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{5F9CFA76-FB56-45C5-85EA-F0A0C4814ED9}" name="CHECK" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{9034DB75-A35D-40DA-9B02-E245B29B906D}" name="Date" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{9D116230-888C-4DC0-9632-4961EC573E06}" name="FROM" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{A59F171F-3DF7-49EB-BCD6-30A73E3AE642}" name="TO" dataDxfId="19" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{5F9CFA76-FB56-45C5-85EA-F0A0C4814ED9}" name="CHECK" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E2833A92-15F0-45DF-8153-A7603B424774}" name="Table225" displayName="Table225" ref="M3:P71" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="M3:P71" xr:uid="{E2833A92-15F0-45DF-8153-A7603B424774}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E2833A92-15F0-45DF-8153-A7603B424774}" name="Table4" displayName="Table4" ref="S3:V71" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="S3:V71" xr:uid="{E2833A92-15F0-45DF-8153-A7603B424774}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F939511D-5FD6-4F93-B2DB-3FBFE1C3FCD5}" name="Date" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{1AE9D2F2-DAC2-4413-9B1B-4723A3CDD042}" name="FROM" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{AEE26E09-6685-4A24-9E50-62100CDCD428}" name="TO" dataDxfId="7" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{117B0C20-5798-4D67-8692-5742681B2FB9}" name="CHECK" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{F939511D-5FD6-4F93-B2DB-3FBFE1C3FCD5}" name="Date" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{1AE9D2F2-DAC2-4413-9B1B-4723A3CDD042}" name="FROM" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{AEE26E09-6685-4A24-9E50-62100CDCD428}" name="TO" dataDxfId="13" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{117B0C20-5798-4D67-8692-5742681B2FB9}" name="CHECK" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95C69AC5-52E2-430E-9350-55F2F2484544}" name="Table223" displayName="Table223" ref="A3:D71" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95C69AC5-52E2-430E-9350-55F2F2484544}" name="Table1" displayName="Table1" ref="A3:D71" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A3:D71" xr:uid="{95C69AC5-52E2-430E-9350-55F2F2484544}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C7780D76-4CF2-473D-A768-5590D3BF824F}" name="Date" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{2FF38463-101D-44CF-9057-35AE77F349C2}" name="FROM" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{B42F1EF5-ECCA-4DC1-92E1-037B540AE0A4}" name="TO" dataDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{07621FB1-73D3-4C5E-BA4D-D16052F0881C}" name="CHECK" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C7780D76-4CF2-473D-A768-5590D3BF824F}" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{2FF38463-101D-44CF-9057-35AE77F349C2}" name="FROM" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{B42F1EF5-ECCA-4DC1-92E1-037B540AE0A4}" name="TO" dataDxfId="7" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{07621FB1-73D3-4C5E-BA4D-D16052F0881C}" name="CHECK" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E8FFF9C2-719B-4D01-A886-FF416EB0BE58}" name="Table2" displayName="Table2" ref="G3:J71" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="G3:J71" xr:uid="{E8FFF9C2-719B-4D01-A886-FF416EB0BE58}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{79EA2DB9-4BC2-494B-BBCB-3889577E0F23}" name="Date" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{5094DD68-B51C-441B-AC7B-E7E301285BD3}" name="FROM" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{3D857A33-D267-48ED-9517-77F445D90ABE}" name="TO" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{E3797F78-3603-413C-B03F-A4AF7F4B596B}" name="CHECK" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -985,11 +1103,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F4D59D-8EC0-4300-B06F-D1EA277B0BF1}">
-  <dimension ref="A1:X72"/>
+  <dimension ref="A1:AD72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -1004,19 +1122,24 @@
     <col min="10" max="10" width="12.77734375" style="11" customWidth="1"/>
     <col min="11" max="11" width="12.77734375" style="14" customWidth="1"/>
     <col min="12" max="12" width="11.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.5546875" style="12" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="12.77734375" style="13" customWidth="1"/>
     <col min="16" max="16" width="12.77734375" style="11" customWidth="1"/>
     <col min="17" max="17" width="12.77734375" style="14" customWidth="1"/>
-    <col min="18" max="18" width="8.77734375" style="14" customWidth="1"/>
-    <col min="19" max="19" width="36.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="12.77734375" style="11" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12.77734375" style="13" customWidth="1"/>
+    <col min="22" max="22" width="12.77734375" style="11" customWidth="1"/>
     <col min="23" max="23" width="12.77734375" style="14" customWidth="1"/>
-    <col min="24" max="24" width="11.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="11"/>
+    <col min="24" max="24" width="8.77734375" style="14" customWidth="1"/>
+    <col min="25" max="25" width="36.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="12.77734375" style="11" customWidth="1"/>
+    <col min="29" max="29" width="12.77734375" style="14" customWidth="1"/>
+    <col min="30" max="30" width="11.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>9</v>
       </c>
@@ -1029,24 +1152,24 @@
       <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="G1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
       <c r="K1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
+      <c r="M1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
       <c r="Q1" s="4" t="s">
         <v>5</v>
       </c>
@@ -1054,7 +1177,7 @@
         <v>6</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T1" s="16"/>
       <c r="U1" s="16"/>
@@ -1065,42 +1188,54 @@
       <c r="X1" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" ht="25.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="Y1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="25.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="6">
         <f ca="1">(E3+(F3/60))/60</f>
-        <v>0.15</v>
+        <v>0.48333333333333334</v>
       </c>
       <c r="F2" s="7">
         <f ca="1">(E3+(F3/60))</f>
-        <v>9</v>
-      </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+        <v>29</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
       <c r="K2" s="6">
         <f ca="1">(K3+(L3/60))/60</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L2" s="7">
         <f ca="1">(K3+(L3/60))</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
       <c r="Q2" s="6">
-        <f>(Q3+(R3/60))/60</f>
+        <f ca="1">(Q3+(R3/60))/60</f>
         <v>0</v>
       </c>
       <c r="R2" s="7">
-        <f>(Q3+(R3/60))</f>
+        <f ca="1">(Q3+(R3/60))</f>
         <v>0</v>
       </c>
       <c r="S2" s="16"/>
@@ -1115,8 +1250,20 @@
         <f>(W3+(X3/60))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="6">
+        <f>(AC3+(AD3/60))/60</f>
+        <v>0</v>
+      </c>
+      <c r="AD2" s="7">
+        <f>(AC3+(AD3/60))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -1130,11 +1277,11 @@
         <v>3</v>
       </c>
       <c r="E3" s="8">
-        <f ca="1">SUMIF(Table223[CHECK],"Done",E$4:E$60)</f>
-        <v>9</v>
+        <f ca="1">SUMIF(Table1[CHECK],"Done",E$4:E$60)</f>
+        <v>29</v>
       </c>
       <c r="F3" s="8">
-        <f ca="1">SUMIF(Table223[CHECK],"Done",F$4:F$60)</f>
+        <f ca="1">SUMIF(Table1[CHECK],"Done",F$4:F$60)</f>
         <v>0</v>
       </c>
       <c r="G3" s="12" t="s">
@@ -1150,11 +1297,11 @@
         <v>3</v>
       </c>
       <c r="K3" s="8">
-        <f ca="1">SUMIF(Table22[CHECK],"Done",K$4:K$60)</f>
-        <v>0</v>
+        <f ca="1">SUMIF(Table2[CHECK],"Done",K$4:K$60)</f>
+        <v>6</v>
       </c>
       <c r="L3" s="8">
-        <f ca="1">SUMIF(Table22[CHECK],"Done",L$4:L$60)</f>
+        <f ca="1">SUMIF(Table2[CHECK],"Done",L$4:L$60)</f>
         <v>0</v>
       </c>
       <c r="M3" s="12" t="s">
@@ -1170,11 +1317,11 @@
         <v>3</v>
       </c>
       <c r="Q3" s="8">
-        <f>SUMIF(Table225[CHECK],"Done",Q$4:Q$71)</f>
+        <f ca="1">SUMIF(Table6[CHECK],"Done",Q$4:Q$60)</f>
         <v>0</v>
       </c>
       <c r="R3" s="8">
-        <f>SUMIF(Table225[CHECK],"Done",R$4:R$71)</f>
+        <f ca="1">SUMIF(Table6[CHECK],"Done",R$4:R$60)</f>
         <v>0</v>
       </c>
       <c r="S3" s="12" t="s">
@@ -1190,15 +1337,35 @@
         <v>3</v>
       </c>
       <c r="W3" s="8">
-        <f>SUMIF(Table224[CHECK],"Done",W$4:W$71)</f>
+        <f>SUMIF(Table4[CHECK],"Done",W$4:W$71)</f>
         <v>0</v>
       </c>
       <c r="X3" s="8">
-        <f>SUMIF(Table224[CHECK],"Done",X$4:X$71)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <f>SUMIF(Table4[CHECK],"Done",X$4:X$71)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="8">
+        <f>SUMIF(Table5[CHECK],"Done",AC$4:AC$71)</f>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="8">
+        <f>SUMIF(Table5[CHECK],"Done",AD$4:AD$71)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
         <v>45395</v>
       </c>
@@ -1218,8 +1385,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="15">
-        <f ca="1">TODAY()</f>
-        <v>45396</v>
+        <v>45397</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -1227,15 +1393,18 @@
       <c r="I4" s="1">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="J4" s="10"/>
+      <c r="J4" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="K4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4" s="2">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="M4" s="15">
-        <v>45374</v>
+        <f ca="1">TODAY()</f>
+        <v>45398</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
@@ -1243,28 +1412,44 @@
       <c r="O4" s="1">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="P4" s="9"/>
+      <c r="P4" s="10"/>
       <c r="Q4" s="2">
         <v>2</v>
       </c>
       <c r="R4" s="2">
+        <v>21</v>
+      </c>
+      <c r="S4" s="15">
+        <v>45374</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="V4" s="9"/>
+      <c r="W4" s="2">
         <v>2</v>
       </c>
-      <c r="S4" s="15">
+      <c r="X4" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="15">
         <f ca="1">TODAY()</f>
-        <v>45396</v>
-      </c>
-      <c r="T4" s="1">
-        <v>0</v>
-      </c>
-      <c r="U4" s="1">
+        <v>45398</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1">
         <v>1.0416666666666667E-3</v>
       </c>
-      <c r="V4" s="10"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-    </row>
-    <row r="5" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+    </row>
+    <row r="5" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
         <f>A4+1</f>
         <v>45396</v>
@@ -1285,8 +1470,8 @@
         <v>0</v>
       </c>
       <c r="G5" s="15">
-        <f ca="1">G4+1</f>
-        <v>45397</v>
+        <f>G4+1</f>
+        <v>45398</v>
       </c>
       <c r="H5" s="1">
         <v>2.0833333333333333E-3</v>
@@ -1294,16 +1479,18 @@
       <c r="I5" s="1">
         <v>4.1666666666666701E-3</v>
       </c>
-      <c r="J5" s="10"/>
+      <c r="J5" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M5" s="15">
-        <f>M4+1</f>
-        <v>45375</v>
+        <f ca="1">M4+1</f>
+        <v>45399</v>
       </c>
       <c r="N5" s="1">
         <v>2.0833333333333333E-3</v>
@@ -1311,28 +1498,45 @@
       <c r="O5" s="1">
         <v>4.1666666666666701E-3</v>
       </c>
-      <c r="P5" s="9"/>
+      <c r="P5" s="10"/>
       <c r="Q5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="2">
+        <v>4</v>
+      </c>
+      <c r="S5" s="15">
+        <f>S4+1</f>
+        <v>45375</v>
+      </c>
+      <c r="T5" s="1">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="U5" s="1">
+        <v>4.1666666666666701E-3</v>
+      </c>
+      <c r="V5" s="9"/>
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2">
         <v>48</v>
       </c>
-      <c r="S5" s="15">
-        <f ca="1">S4+1</f>
-        <v>45397</v>
-      </c>
-      <c r="T5" s="1">
+      <c r="Y5" s="15">
+        <f ca="1">Y4+1</f>
+        <v>45399</v>
+      </c>
+      <c r="Z5" s="1">
         <v>1.0416666666666667E-3</v>
       </c>
-      <c r="U5" s="1">
+      <c r="AA5" s="1">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="V5" s="10"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-    </row>
-    <row r="6" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+    </row>
+    <row r="6" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15">
         <f t="shared" ref="A6:A13" si="0">A5+1</f>
         <v>45397</v>
@@ -1353,8 +1557,8 @@
         <v>0</v>
       </c>
       <c r="G6" s="15">
-        <f t="shared" ref="G6:G69" ca="1" si="1">G5+1</f>
-        <v>45398</v>
+        <f t="shared" ref="G6:G24" si="1">G5+1</f>
+        <v>45399</v>
       </c>
       <c r="H6" s="1">
         <v>4.1666666666666701E-3</v>
@@ -1364,14 +1568,14 @@
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M6" s="15">
-        <f t="shared" ref="M6:M69" si="2">M5+1</f>
-        <v>45376</v>
+        <f t="shared" ref="M6:M69" ca="1" si="2">M5+1</f>
+        <v>45400</v>
       </c>
       <c r="N6" s="1">
         <v>4.1666666666666701E-3</v>
@@ -1379,28 +1583,45 @@
       <c r="O6" s="1">
         <v>6.2500000000000003E-3</v>
       </c>
-      <c r="P6" s="9"/>
+      <c r="P6" s="10"/>
       <c r="Q6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2">
+        <v>25</v>
+      </c>
+      <c r="S6" s="15">
+        <f t="shared" ref="S6:S69" si="3">S5+1</f>
+        <v>45376</v>
+      </c>
+      <c r="T6" s="1">
+        <v>4.1666666666666701E-3</v>
+      </c>
+      <c r="U6" s="1">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="V6" s="9"/>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2">
         <v>38</v>
       </c>
-      <c r="S6" s="15">
-        <f t="shared" ref="S6:S61" ca="1" si="3">S5+1</f>
-        <v>45398</v>
-      </c>
-      <c r="T6" s="1">
+      <c r="Y6" s="15">
+        <f t="shared" ref="Y6:Y61" ca="1" si="4">Y5+1</f>
+        <v>45400</v>
+      </c>
+      <c r="Z6" s="1">
         <v>2.0833333333333298E-3</v>
       </c>
-      <c r="U6" s="1">
+      <c r="AA6" s="1">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="V6" s="10"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-    </row>
-    <row r="7" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+    </row>
+    <row r="7" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
         <f t="shared" si="0"/>
         <v>45398</v>
@@ -1411,7 +1632,9 @@
       <c r="C7" s="1">
         <v>8.3333333333333402E-3</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="E7" s="2">
         <v>3</v>
       </c>
@@ -1419,8 +1642,8 @@
         <v>0</v>
       </c>
       <c r="G7" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45399</v>
+        <f t="shared" si="1"/>
+        <v>45400</v>
       </c>
       <c r="H7" s="1">
         <v>6.2500000000000003E-3</v>
@@ -1429,15 +1652,15 @@
         <v>8.3333333333333402E-3</v>
       </c>
       <c r="J7" s="10"/>
-      <c r="K7" s="3">
-        <v>0</v>
+      <c r="K7" s="2">
+        <v>3</v>
       </c>
       <c r="L7" s="2">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="M7" s="15">
-        <f t="shared" si="2"/>
-        <v>45377</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45401</v>
       </c>
       <c r="N7" s="1">
         <v>6.2500000000000003E-3</v>
@@ -1445,28 +1668,45 @@
       <c r="O7" s="1">
         <v>8.3333333333333402E-3</v>
       </c>
-      <c r="P7" s="9"/>
+      <c r="P7" s="10"/>
       <c r="Q7" s="3">
         <v>0</v>
       </c>
       <c r="R7" s="2">
+        <v>38</v>
+      </c>
+      <c r="S7" s="15">
+        <f t="shared" si="3"/>
+        <v>45377</v>
+      </c>
+      <c r="T7" s="1">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="U7" s="1">
+        <v>8.3333333333333402E-3</v>
+      </c>
+      <c r="V7" s="9"/>
+      <c r="W7" s="3">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2">
         <v>58</v>
       </c>
-      <c r="S7" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45399</v>
-      </c>
-      <c r="T7" s="1">
+      <c r="Y7" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45401</v>
+      </c>
+      <c r="Z7" s="1">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="U7" s="1">
+      <c r="AA7" s="1">
         <v>4.1666666666666701E-3</v>
       </c>
-      <c r="V7" s="10"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="2"/>
-    </row>
-    <row r="8" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="2"/>
+    </row>
+    <row r="8" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
         <f t="shared" si="0"/>
         <v>45399</v>
@@ -1477,7 +1717,9 @@
       <c r="C8" s="1">
         <v>1.0416666666666701E-2</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="E8" s="2">
         <v>3</v>
       </c>
@@ -1485,8 +1727,8 @@
         <v>0</v>
       </c>
       <c r="G8" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45400</v>
+        <f t="shared" si="1"/>
+        <v>45401</v>
       </c>
       <c r="H8" s="1">
         <v>8.3333333333333297E-3</v>
@@ -1496,14 +1738,14 @@
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8" s="2">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="M8" s="15">
-        <f t="shared" si="2"/>
-        <v>45378</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45402</v>
       </c>
       <c r="N8" s="1">
         <v>8.3333333333333297E-3</v>
@@ -1511,28 +1753,45 @@
       <c r="O8" s="1">
         <v>1.0416666666666701E-2</v>
       </c>
-      <c r="P8" s="9"/>
+      <c r="P8" s="10"/>
       <c r="Q8" s="2">
         <v>2</v>
       </c>
       <c r="R8" s="2">
+        <v>41</v>
+      </c>
+      <c r="S8" s="15">
+        <f t="shared" si="3"/>
+        <v>45378</v>
+      </c>
+      <c r="T8" s="1">
+        <v>8.3333333333333297E-3</v>
+      </c>
+      <c r="U8" s="1">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="V8" s="9"/>
+      <c r="W8" s="2">
+        <v>2</v>
+      </c>
+      <c r="X8" s="2">
         <v>15</v>
       </c>
-      <c r="S8" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45400</v>
-      </c>
-      <c r="T8" s="1">
+      <c r="Y8" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45402</v>
+      </c>
+      <c r="Z8" s="1">
         <v>4.1666666666666701E-3</v>
       </c>
-      <c r="U8" s="1">
+      <c r="AA8" s="1">
         <v>5.20833333333334E-3</v>
       </c>
-      <c r="V8" s="10"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-    </row>
-    <row r="9" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+    </row>
+    <row r="9" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <f t="shared" si="0"/>
         <v>45400</v>
@@ -1543,7 +1802,9 @@
       <c r="C9" s="1">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="E9" s="2">
         <v>3</v>
       </c>
@@ -1551,8 +1812,8 @@
         <v>0</v>
       </c>
       <c r="G9" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45401</v>
+        <f t="shared" si="1"/>
+        <v>45402</v>
       </c>
       <c r="H9" s="1">
         <v>1.0416666666666701E-2</v>
@@ -1562,14 +1823,14 @@
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9" s="2">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="M9" s="15">
-        <f t="shared" si="2"/>
-        <v>45379</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45403</v>
       </c>
       <c r="N9" s="1">
         <v>1.0416666666666701E-2</v>
@@ -1577,28 +1838,45 @@
       <c r="O9" s="1">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="P9" s="9"/>
+      <c r="P9" s="10"/>
       <c r="Q9" s="2">
         <v>1</v>
       </c>
       <c r="R9" s="2">
+        <v>24</v>
+      </c>
+      <c r="S9" s="15">
+        <f t="shared" si="3"/>
+        <v>45379</v>
+      </c>
+      <c r="T9" s="1">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="U9" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="V9" s="9"/>
+      <c r="W9" s="2">
+        <v>1</v>
+      </c>
+      <c r="X9" s="2">
         <v>17</v>
       </c>
-      <c r="S9" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45401</v>
-      </c>
-      <c r="T9" s="1">
+      <c r="Y9" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45403</v>
+      </c>
+      <c r="Z9" s="1">
         <v>5.2083333333333296E-3</v>
       </c>
-      <c r="U9" s="1">
+      <c r="AA9" s="1">
         <v>6.2500000000000003E-3</v>
       </c>
-      <c r="V9" s="10"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-    </row>
-    <row r="10" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+    </row>
+    <row r="10" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
         <f t="shared" si="0"/>
         <v>45401</v>
@@ -1609,7 +1887,9 @@
       <c r="C10" s="1">
         <v>1.4583333333333301E-2</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="E10" s="2">
         <v>3</v>
       </c>
@@ -1617,8 +1897,8 @@
         <v>0</v>
       </c>
       <c r="G10" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45402</v>
+        <f t="shared" si="1"/>
+        <v>45403</v>
       </c>
       <c r="H10" s="1">
         <v>1.2500000000000001E-2</v>
@@ -1628,14 +1908,14 @@
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10" s="2">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="M10" s="15">
-        <f t="shared" si="2"/>
-        <v>45380</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45404</v>
       </c>
       <c r="N10" s="1">
         <v>1.2500000000000001E-2</v>
@@ -1643,28 +1923,45 @@
       <c r="O10" s="1">
         <v>1.4583333333333301E-2</v>
       </c>
-      <c r="P10" s="9"/>
+      <c r="P10" s="10"/>
       <c r="Q10" s="2">
         <v>2</v>
       </c>
       <c r="R10" s="2">
+        <v>22</v>
+      </c>
+      <c r="S10" s="15">
+        <f t="shared" si="3"/>
+        <v>45380</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="U10" s="1">
+        <v>1.4583333333333301E-2</v>
+      </c>
+      <c r="V10" s="9"/>
+      <c r="W10" s="2">
+        <v>2</v>
+      </c>
+      <c r="X10" s="2">
         <v>51</v>
       </c>
-      <c r="S10" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45402</v>
-      </c>
-      <c r="T10" s="1">
+      <c r="Y10" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45404</v>
+      </c>
+      <c r="Z10" s="1">
         <v>6.2500000000000003E-3</v>
       </c>
-      <c r="U10" s="1">
+      <c r="AA10" s="1">
         <v>7.2916666666666703E-3</v>
       </c>
-      <c r="V10" s="10"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-    </row>
-    <row r="11" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+    </row>
+    <row r="11" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
         <f t="shared" si="0"/>
         <v>45402</v>
@@ -1675,7 +1972,9 @@
       <c r="C11" s="1">
         <v>1.6666666666666701E-2</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="E11" s="2">
         <v>3</v>
       </c>
@@ -1683,8 +1982,8 @@
         <v>0</v>
       </c>
       <c r="G11" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45403</v>
+        <f t="shared" si="1"/>
+        <v>45404</v>
       </c>
       <c r="H11" s="1">
         <v>1.4583333333333301E-2</v>
@@ -1694,14 +1993,14 @@
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11" s="2">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="M11" s="15">
-        <f t="shared" si="2"/>
-        <v>45381</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45405</v>
       </c>
       <c r="N11" s="1">
         <v>1.4583333333333301E-2</v>
@@ -1709,28 +2008,45 @@
       <c r="O11" s="1">
         <v>1.6666666666666701E-2</v>
       </c>
-      <c r="P11" s="9"/>
+      <c r="P11" s="10"/>
       <c r="Q11" s="2">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2">
+        <v>49</v>
+      </c>
+      <c r="S11" s="15">
+        <f t="shared" si="3"/>
+        <v>45381</v>
+      </c>
+      <c r="T11" s="1">
+        <v>1.4583333333333301E-2</v>
+      </c>
+      <c r="U11" s="1">
+        <v>1.6666666666666701E-2</v>
+      </c>
+      <c r="V11" s="9"/>
+      <c r="W11" s="2">
         <v>8</v>
       </c>
-      <c r="R11" s="2">
+      <c r="X11" s="2">
         <v>52</v>
       </c>
-      <c r="S11" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45403</v>
-      </c>
-      <c r="T11" s="1">
+      <c r="Y11" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45405</v>
+      </c>
+      <c r="Z11" s="1">
         <v>7.2916666666666703E-3</v>
       </c>
-      <c r="U11" s="1">
+      <c r="AA11" s="1">
         <v>8.3333333333333402E-3</v>
       </c>
-      <c r="V11" s="10"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-    </row>
-    <row r="12" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+    </row>
+    <row r="12" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
         <f t="shared" si="0"/>
         <v>45403</v>
@@ -1741,7 +2057,9 @@
       <c r="C12" s="1">
         <v>1.8749999999999999E-2</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="E12" s="2">
         <v>3</v>
       </c>
@@ -1749,8 +2067,8 @@
         <v>0</v>
       </c>
       <c r="G12" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45404</v>
+        <f t="shared" si="1"/>
+        <v>45405</v>
       </c>
       <c r="H12" s="1">
         <v>1.6666666666666701E-2</v>
@@ -1760,14 +2078,14 @@
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L12" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M12" s="15">
-        <f t="shared" si="2"/>
-        <v>45382</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45406</v>
       </c>
       <c r="N12" s="1">
         <v>1.6666666666666701E-2</v>
@@ -1775,28 +2093,45 @@
       <c r="O12" s="1">
         <v>1.8749999999999999E-2</v>
       </c>
-      <c r="P12" s="9"/>
+      <c r="P12" s="10"/>
       <c r="Q12" s="2">
+        <v>5</v>
+      </c>
+      <c r="R12" s="2">
+        <v>15</v>
+      </c>
+      <c r="S12" s="15">
+        <f t="shared" si="3"/>
+        <v>45382</v>
+      </c>
+      <c r="T12" s="1">
+        <v>1.6666666666666701E-2</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="V12" s="9"/>
+      <c r="W12" s="2">
         <v>6</v>
       </c>
-      <c r="R12" s="2">
+      <c r="X12" s="2">
         <v>17</v>
       </c>
-      <c r="S12" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45404</v>
-      </c>
-      <c r="T12" s="1">
+      <c r="Y12" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45406</v>
+      </c>
+      <c r="Z12" s="1">
         <v>8.3333333333333297E-3</v>
       </c>
-      <c r="U12" s="1">
+      <c r="AA12" s="1">
         <v>9.3749999999999997E-3</v>
       </c>
-      <c r="V12" s="10"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-    </row>
-    <row r="13" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+    </row>
+    <row r="13" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
         <f t="shared" si="0"/>
         <v>45404</v>
@@ -1805,35 +2140,37 @@
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="C13" s="1">
-        <v>2.0833333333333301E-2</v>
-      </c>
-      <c r="D13" s="10"/>
+        <v>2.013888888888889E-2</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="E13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
       </c>
       <c r="G13" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45405</v>
+        <f t="shared" si="1"/>
+        <v>45406</v>
       </c>
       <c r="H13" s="1">
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="I13" s="1">
-        <v>2.0833333333333301E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L13" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M13" s="15">
-        <f t="shared" si="2"/>
-        <v>45383</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45407</v>
       </c>
       <c r="N13" s="1">
         <v>1.8749999999999999E-2</v>
@@ -1841,28 +2178,45 @@
       <c r="O13" s="1">
         <v>2.0833333333333301E-2</v>
       </c>
-      <c r="P13" s="9"/>
+      <c r="P13" s="10"/>
       <c r="Q13" s="2">
+        <v>8</v>
+      </c>
+      <c r="R13" s="2">
+        <v>13</v>
+      </c>
+      <c r="S13" s="15">
+        <f t="shared" si="3"/>
+        <v>45383</v>
+      </c>
+      <c r="T13" s="1">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="U13" s="1">
+        <v>2.0833333333333301E-2</v>
+      </c>
+      <c r="V13" s="9"/>
+      <c r="W13" s="2">
         <v>1</v>
       </c>
-      <c r="R13" s="2">
+      <c r="X13" s="2">
         <v>58</v>
       </c>
-      <c r="S13" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45405</v>
-      </c>
-      <c r="T13" s="1">
+      <c r="Y13" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45407</v>
+      </c>
+      <c r="Z13" s="1">
         <v>9.3749999999999997E-3</v>
       </c>
-      <c r="U13" s="1">
+      <c r="AA13" s="1">
         <v>1.0416666666666701E-2</v>
       </c>
-      <c r="V13" s="10"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-    </row>
-    <row r="14" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+    </row>
+    <row r="14" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1870,8 +2224,8 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45406</v>
+        <f t="shared" si="1"/>
+        <v>45407</v>
       </c>
       <c r="H14" s="1">
         <v>2.0833333333333301E-2</v>
@@ -1881,14 +2235,14 @@
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L14" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M14" s="15">
-        <f t="shared" si="2"/>
-        <v>45384</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45408</v>
       </c>
       <c r="N14" s="1">
         <v>2.0833333333333301E-2</v>
@@ -1896,28 +2250,45 @@
       <c r="O14" s="1">
         <v>2.29166666666667E-2</v>
       </c>
-      <c r="P14" s="9"/>
+      <c r="P14" s="10"/>
       <c r="Q14" s="2">
+        <v>6</v>
+      </c>
+      <c r="R14" s="2">
+        <v>4</v>
+      </c>
+      <c r="S14" s="15">
+        <f t="shared" si="3"/>
+        <v>45384</v>
+      </c>
+      <c r="T14" s="1">
+        <v>2.0833333333333301E-2</v>
+      </c>
+      <c r="U14" s="1">
+        <v>2.29166666666667E-2</v>
+      </c>
+      <c r="V14" s="9"/>
+      <c r="W14" s="2">
         <v>1</v>
       </c>
-      <c r="R14" s="2">
+      <c r="X14" s="2">
         <v>45</v>
       </c>
-      <c r="S14" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45406</v>
-      </c>
-      <c r="T14" s="1">
+      <c r="Y14" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45408</v>
+      </c>
+      <c r="Z14" s="1">
         <v>1.0416666666666701E-2</v>
       </c>
-      <c r="U14" s="1">
+      <c r="AA14" s="1">
         <v>1.14583333333334E-2</v>
       </c>
-      <c r="V14" s="10"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-    </row>
-    <row r="15" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+    </row>
+    <row r="15" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1925,25 +2296,25 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45407</v>
+        <f t="shared" si="1"/>
+        <v>45408</v>
       </c>
       <c r="H15" s="1">
-        <v>2.29166666666667E-2</v>
+        <v>2.2916666666666599E-2</v>
       </c>
       <c r="I15" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M15" s="15">
-        <f t="shared" si="2"/>
-        <v>45385</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45409</v>
       </c>
       <c r="N15" s="1">
         <v>2.29166666666667E-2</v>
@@ -1951,28 +2322,45 @@
       <c r="O15" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="P15" s="9"/>
+      <c r="P15" s="10"/>
       <c r="Q15" s="2">
+        <v>2</v>
+      </c>
+      <c r="R15" s="2">
+        <v>25</v>
+      </c>
+      <c r="S15" s="15">
+        <f t="shared" si="3"/>
+        <v>45385</v>
+      </c>
+      <c r="T15" s="1">
+        <v>2.29166666666667E-2</v>
+      </c>
+      <c r="U15" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="V15" s="9"/>
+      <c r="W15" s="2">
         <v>6</v>
       </c>
-      <c r="R15" s="2">
+      <c r="X15" s="2">
         <v>40</v>
       </c>
-      <c r="S15" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45407</v>
-      </c>
-      <c r="T15" s="1">
+      <c r="Y15" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45409</v>
+      </c>
+      <c r="Z15" s="1">
         <v>1.14583333333333E-2</v>
       </c>
-      <c r="U15" s="1">
+      <c r="AA15" s="1">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="V15" s="10"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-    </row>
-    <row r="16" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+    </row>
+    <row r="16" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1980,25 +2368,25 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45408</v>
+        <f t="shared" si="1"/>
+        <v>45409</v>
       </c>
       <c r="H16" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>2.4999999999999901E-2</v>
       </c>
       <c r="I16" s="1">
         <v>2.70833333333333E-2</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L16" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M16" s="15">
-        <f t="shared" si="2"/>
-        <v>45386</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45410</v>
       </c>
       <c r="N16" s="1">
         <v>2.5000000000000001E-2</v>
@@ -2006,28 +2394,45 @@
       <c r="O16" s="1">
         <v>2.70833333333333E-2</v>
       </c>
-      <c r="P16" s="9"/>
+      <c r="P16" s="10"/>
       <c r="Q16" s="2">
+        <v>4</v>
+      </c>
+      <c r="R16" s="2">
+        <v>9</v>
+      </c>
+      <c r="S16" s="15">
+        <f t="shared" si="3"/>
+        <v>45386</v>
+      </c>
+      <c r="T16" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="U16" s="1">
+        <v>2.70833333333333E-2</v>
+      </c>
+      <c r="V16" s="9"/>
+      <c r="W16" s="2">
         <v>6</v>
       </c>
-      <c r="R16" s="2">
+      <c r="X16" s="2">
         <v>54</v>
       </c>
-      <c r="S16" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45408</v>
-      </c>
-      <c r="T16" s="1">
+      <c r="Y16" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45410</v>
+      </c>
+      <c r="Z16" s="1">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="U16" s="1">
+      <c r="AA16" s="1">
         <v>1.35416666666667E-2</v>
       </c>
-      <c r="V16" s="10"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-    </row>
-    <row r="17" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+    </row>
+    <row r="17" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2035,25 +2440,25 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45409</v>
+        <f t="shared" si="1"/>
+        <v>45410</v>
       </c>
       <c r="H17" s="1">
-        <v>2.70833333333333E-2</v>
+        <v>2.7083333333333199E-2</v>
       </c>
       <c r="I17" s="1">
         <v>2.9166666666666698E-2</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L17" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M17" s="15">
-        <f t="shared" si="2"/>
-        <v>45387</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45411</v>
       </c>
       <c r="N17" s="1">
         <v>2.70833333333333E-2</v>
@@ -2061,28 +2466,45 @@
       <c r="O17" s="1">
         <v>2.9166666666666698E-2</v>
       </c>
-      <c r="P17" s="9"/>
+      <c r="P17" s="10"/>
       <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="2">
+        <v>20</v>
+      </c>
+      <c r="S17" s="15">
+        <f t="shared" si="3"/>
+        <v>45387</v>
+      </c>
+      <c r="T17" s="1">
+        <v>2.70833333333333E-2</v>
+      </c>
+      <c r="U17" s="1">
+        <v>2.9166666666666698E-2</v>
+      </c>
+      <c r="V17" s="9"/>
+      <c r="W17" s="2">
         <v>2</v>
       </c>
-      <c r="R17" s="2">
+      <c r="X17" s="2">
         <v>32</v>
       </c>
-      <c r="S17" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45409</v>
-      </c>
-      <c r="T17" s="1">
+      <c r="Y17" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45411</v>
+      </c>
+      <c r="Z17" s="1">
         <v>1.35416666666667E-2</v>
       </c>
-      <c r="U17" s="1">
+      <c r="AA17" s="1">
         <v>1.4583333333333399E-2</v>
       </c>
-      <c r="V17" s="10"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-    </row>
-    <row r="18" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+    </row>
+    <row r="18" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2090,25 +2512,25 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45410</v>
+        <f t="shared" si="1"/>
+        <v>45411</v>
       </c>
       <c r="H18" s="1">
-        <v>2.9166666666666698E-2</v>
+        <v>2.9166666666666501E-2</v>
       </c>
       <c r="I18" s="1">
         <v>3.125E-2</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18" s="2">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="M18" s="15">
-        <f t="shared" si="2"/>
-        <v>45388</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45412</v>
       </c>
       <c r="N18" s="1">
         <v>2.9166666666666698E-2</v>
@@ -2116,28 +2538,45 @@
       <c r="O18" s="1">
         <v>3.125E-2</v>
       </c>
-      <c r="P18" s="9"/>
+      <c r="P18" s="10"/>
       <c r="Q18" s="2">
+        <v>2</v>
+      </c>
+      <c r="R18" s="2">
+        <v>34</v>
+      </c>
+      <c r="S18" s="15">
+        <f t="shared" si="3"/>
+        <v>45388</v>
+      </c>
+      <c r="T18" s="1">
+        <v>2.9166666666666698E-2</v>
+      </c>
+      <c r="U18" s="1">
+        <v>3.125E-2</v>
+      </c>
+      <c r="V18" s="9"/>
+      <c r="W18" s="2">
         <v>4</v>
       </c>
-      <c r="R18" s="2">
+      <c r="X18" s="2">
         <v>57</v>
       </c>
-      <c r="S18" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45410</v>
-      </c>
-      <c r="T18" s="1">
+      <c r="Y18" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45412</v>
+      </c>
+      <c r="Z18" s="1">
         <v>1.4583333333333301E-2</v>
       </c>
-      <c r="U18" s="1">
+      <c r="AA18" s="1">
         <v>1.5625E-2</v>
       </c>
-      <c r="V18" s="10"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-    </row>
-    <row r="19" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+    </row>
+    <row r="19" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2145,25 +2584,25 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45411</v>
+        <f t="shared" si="1"/>
+        <v>45412</v>
       </c>
       <c r="H19" s="1">
-        <v>3.125E-2</v>
+        <v>3.1249999999999799E-2</v>
       </c>
       <c r="I19" s="1">
         <v>3.3333333333333298E-2</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L19" s="2">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="M19" s="15">
-        <f t="shared" si="2"/>
-        <v>45389</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45413</v>
       </c>
       <c r="N19" s="1">
         <v>3.125E-2</v>
@@ -2171,28 +2610,45 @@
       <c r="O19" s="1">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="P19" s="9"/>
+      <c r="P19" s="10"/>
       <c r="Q19" s="2">
         <v>4</v>
       </c>
       <c r="R19" s="2">
+        <v>27</v>
+      </c>
+      <c r="S19" s="15">
+        <f t="shared" si="3"/>
+        <v>45389</v>
+      </c>
+      <c r="T19" s="1">
+        <v>3.125E-2</v>
+      </c>
+      <c r="U19" s="1">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="V19" s="9"/>
+      <c r="W19" s="2">
+        <v>4</v>
+      </c>
+      <c r="X19" s="2">
         <v>52</v>
       </c>
-      <c r="S19" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45411</v>
-      </c>
-      <c r="T19" s="1">
+      <c r="Y19" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45413</v>
+      </c>
+      <c r="Z19" s="1">
         <v>1.5625E-2</v>
       </c>
-      <c r="U19" s="1">
+      <c r="AA19" s="1">
         <v>1.6666666666666701E-2</v>
       </c>
-      <c r="V19" s="10"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-    </row>
-    <row r="20" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+    </row>
+    <row r="20" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2200,25 +2656,25 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45412</v>
+        <f t="shared" si="1"/>
+        <v>45413</v>
       </c>
       <c r="H20" s="1">
-        <v>3.3333333333333298E-2</v>
+        <v>3.3333333333333097E-2</v>
       </c>
       <c r="I20" s="1">
         <v>3.54166666666667E-2</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L20" s="2">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="M20" s="15">
-        <f t="shared" si="2"/>
-        <v>45390</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45414</v>
       </c>
       <c r="N20" s="1">
         <v>3.3333333333333298E-2</v>
@@ -2226,28 +2682,45 @@
       <c r="O20" s="1">
         <v>3.54166666666667E-2</v>
       </c>
-      <c r="P20" s="9"/>
+      <c r="P20" s="10"/>
       <c r="Q20" s="2">
+        <v>7</v>
+      </c>
+      <c r="R20" s="2">
+        <v>39</v>
+      </c>
+      <c r="S20" s="15">
+        <f t="shared" si="3"/>
+        <v>45390</v>
+      </c>
+      <c r="T20" s="1">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="U20" s="1">
+        <v>3.54166666666667E-2</v>
+      </c>
+      <c r="V20" s="9"/>
+      <c r="W20" s="2">
         <v>1</v>
       </c>
-      <c r="R20" s="2">
-        <v>0</v>
-      </c>
-      <c r="S20" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45412</v>
-      </c>
-      <c r="T20" s="1">
+      <c r="X20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45414</v>
+      </c>
+      <c r="Z20" s="1">
         <v>1.6666666666666701E-2</v>
       </c>
-      <c r="U20" s="1">
+      <c r="AA20" s="1">
         <v>1.7708333333333399E-2</v>
       </c>
-      <c r="V20" s="10"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-    </row>
-    <row r="21" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+    </row>
+    <row r="21" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2255,25 +2728,25 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45413</v>
+        <f t="shared" si="1"/>
+        <v>45414</v>
       </c>
       <c r="H21" s="1">
-        <v>3.54166666666667E-2</v>
+        <v>3.5416666666666402E-2</v>
       </c>
       <c r="I21" s="1">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L21" s="2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="M21" s="15">
-        <f t="shared" si="2"/>
-        <v>45391</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45415</v>
       </c>
       <c r="N21" s="1">
         <v>3.54166666666667E-2</v>
@@ -2281,28 +2754,45 @@
       <c r="O21" s="1">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="P21" s="9"/>
+      <c r="P21" s="10"/>
       <c r="Q21" s="2">
+        <v>7</v>
+      </c>
+      <c r="R21" s="2">
+        <v>17</v>
+      </c>
+      <c r="S21" s="15">
+        <f t="shared" si="3"/>
+        <v>45391</v>
+      </c>
+      <c r="T21" s="1">
+        <v>3.54166666666667E-2</v>
+      </c>
+      <c r="U21" s="1">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="V21" s="9"/>
+      <c r="W21" s="2">
         <v>1</v>
       </c>
-      <c r="R21" s="2">
+      <c r="X21" s="2">
         <v>55</v>
       </c>
-      <c r="S21" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45413</v>
-      </c>
-      <c r="T21" s="1">
+      <c r="Y21" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45415</v>
+      </c>
+      <c r="Z21" s="1">
         <v>1.7708333333333302E-2</v>
       </c>
-      <c r="U21" s="1">
+      <c r="AA21" s="1">
         <v>1.8749999999999999E-2</v>
       </c>
-      <c r="V21" s="10"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-    </row>
-    <row r="22" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+    </row>
+    <row r="22" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2310,25 +2800,25 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45414</v>
+        <f t="shared" si="1"/>
+        <v>45415</v>
       </c>
       <c r="H22" s="1">
-        <v>3.7499999999999999E-2</v>
+        <v>3.74999999999997E-2</v>
       </c>
       <c r="I22" s="1">
-        <v>3.9583333333333401E-2</v>
+        <v>3.9583333333333297E-2</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L22" s="2">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="M22" s="15">
-        <f t="shared" si="2"/>
-        <v>45392</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45416</v>
       </c>
       <c r="N22" s="1">
         <v>3.7499999999999999E-2</v>
@@ -2336,28 +2826,45 @@
       <c r="O22" s="1">
         <v>3.9583333333333401E-2</v>
       </c>
-      <c r="P22" s="9"/>
+      <c r="P22" s="10"/>
       <c r="Q22" s="2">
+        <v>0</v>
+      </c>
+      <c r="R22" s="2">
+        <v>27</v>
+      </c>
+      <c r="S22" s="15">
+        <f t="shared" si="3"/>
+        <v>45392</v>
+      </c>
+      <c r="T22" s="1">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="U22" s="1">
+        <v>3.9583333333333401E-2</v>
+      </c>
+      <c r="V22" s="9"/>
+      <c r="W22" s="2">
         <v>8</v>
       </c>
-      <c r="R22" s="2">
+      <c r="X22" s="2">
         <v>43</v>
       </c>
-      <c r="S22" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45414</v>
-      </c>
-      <c r="T22" s="1">
+      <c r="Y22" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45416</v>
+      </c>
+      <c r="Z22" s="1">
         <v>1.8749999999999999E-2</v>
       </c>
-      <c r="U22" s="1">
+      <c r="AA22" s="1">
         <v>1.97916666666667E-2</v>
       </c>
-      <c r="V22" s="10"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-    </row>
-    <row r="23" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+    </row>
+    <row r="23" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2365,11 +2872,11 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45415</v>
+        <f t="shared" si="1"/>
+        <v>45416</v>
       </c>
       <c r="H23" s="1">
-        <v>3.9583333333333297E-2</v>
+        <v>3.9583333333332998E-2</v>
       </c>
       <c r="I23" s="1">
         <v>4.1666666666666699E-2</v>
@@ -2379,11 +2886,11 @@
         <v>3</v>
       </c>
       <c r="L23" s="2">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="M23" s="15">
-        <f t="shared" si="2"/>
-        <v>45393</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45417</v>
       </c>
       <c r="N23" s="1">
         <v>3.9583333333333297E-2</v>
@@ -2392,23 +2899,40 @@
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="P23" s="10"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
+      <c r="Q23" s="2">
+        <v>3</v>
+      </c>
+      <c r="R23" s="2">
+        <v>54</v>
+      </c>
       <c r="S23" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45415</v>
+        <f t="shared" si="3"/>
+        <v>45393</v>
       </c>
       <c r="T23" s="1">
-        <v>1.97916666666667E-2</v>
+        <v>3.9583333333333297E-2</v>
       </c>
       <c r="U23" s="1">
-        <v>2.0833333333333402E-2</v>
+        <v>4.1666666666666699E-2</v>
       </c>
       <c r="V23" s="10"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
-    </row>
-    <row r="24" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y23" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45417</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>1.97916666666667E-2</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>2.0833333333333402E-2</v>
+      </c>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+    </row>
+    <row r="24" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2416,25 +2940,25 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45416</v>
+        <f t="shared" si="1"/>
+        <v>45417</v>
       </c>
       <c r="H24" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>4.1666666666666297E-2</v>
       </c>
       <c r="I24" s="1">
-        <v>4.3749999999999997E-2</v>
+        <v>4.3124999999999997E-2</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="2">
         <v>3</v>
       </c>
       <c r="L24" s="2">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="M24" s="15">
-        <f t="shared" si="2"/>
-        <v>45394</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45418</v>
       </c>
       <c r="N24" s="1">
         <v>4.1666666666666699E-2</v>
@@ -2443,49 +2967,55 @@
         <v>4.3749999999999997E-2</v>
       </c>
       <c r="P24" s="10"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
+      <c r="Q24" s="2">
+        <v>3</v>
+      </c>
+      <c r="R24" s="2">
+        <v>59</v>
+      </c>
       <c r="S24" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45416</v>
+        <f t="shared" si="3"/>
+        <v>45394</v>
       </c>
       <c r="T24" s="1">
-        <v>2.0833333333333301E-2</v>
+        <v>4.1666666666666699E-2</v>
       </c>
       <c r="U24" s="1">
-        <v>2.1874999999999999E-2</v>
+        <v>4.3749999999999997E-2</v>
       </c>
       <c r="V24" s="10"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
-    </row>
-    <row r="25" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y24" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45418</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>2.0833333333333301E-2</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>2.1874999999999999E-2</v>
+      </c>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+    </row>
+    <row r="25" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="15"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="10"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45417</v>
-      </c>
-      <c r="H25" s="1">
-        <v>4.3749999999999997E-2</v>
-      </c>
-      <c r="I25" s="1">
-        <v>4.5833333333333399E-2</v>
-      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
       <c r="J25" s="10"/>
-      <c r="K25" s="2">
-        <v>2</v>
-      </c>
-      <c r="L25" s="2">
-        <v>54</v>
-      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
       <c r="M25" s="15">
-        <f t="shared" si="2"/>
-        <v>45395</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45419</v>
       </c>
       <c r="N25" s="1">
         <v>4.3749999999999997E-2</v>
@@ -2494,49 +3024,55 @@
         <v>4.5833333333333399E-2</v>
       </c>
       <c r="P25" s="10"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
+      <c r="Q25" s="2">
+        <v>2</v>
+      </c>
+      <c r="R25" s="2">
+        <v>54</v>
+      </c>
       <c r="S25" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45417</v>
+        <f t="shared" si="3"/>
+        <v>45395</v>
       </c>
       <c r="T25" s="1">
-        <v>2.1874999999999999E-2</v>
+        <v>4.3749999999999997E-2</v>
       </c>
       <c r="U25" s="1">
-        <v>2.29166666666667E-2</v>
+        <v>4.5833333333333399E-2</v>
       </c>
       <c r="V25" s="10"/>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
-    </row>
-    <row r="26" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y25" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45419</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>2.1874999999999999E-2</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>2.29166666666667E-2</v>
+      </c>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+    </row>
+    <row r="26" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="15"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="10"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45418</v>
-      </c>
-      <c r="H26" s="1">
-        <v>4.5833333333333302E-2</v>
-      </c>
-      <c r="I26" s="1">
-        <v>4.7916666666666698E-2</v>
-      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
       <c r="J26" s="10"/>
-      <c r="K26" s="2">
-        <v>7</v>
-      </c>
-      <c r="L26" s="2">
-        <v>9</v>
-      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
       <c r="M26" s="15">
-        <f t="shared" si="2"/>
-        <v>45396</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45420</v>
       </c>
       <c r="N26" s="1">
         <v>4.5833333333333302E-2</v>
@@ -2545,49 +3081,55 @@
         <v>4.7916666666666698E-2</v>
       </c>
       <c r="P26" s="10"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
+      <c r="Q26" s="2">
+        <v>7</v>
+      </c>
+      <c r="R26" s="2">
+        <v>9</v>
+      </c>
       <c r="S26" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45418</v>
+        <f t="shared" si="3"/>
+        <v>45396</v>
       </c>
       <c r="T26" s="1">
-        <v>2.29166666666667E-2</v>
+        <v>4.5833333333333302E-2</v>
       </c>
       <c r="U26" s="1">
-        <v>2.3958333333333401E-2</v>
+        <v>4.7916666666666698E-2</v>
       </c>
       <c r="V26" s="10"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
-    </row>
-    <row r="27" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y26" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45420</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>2.29166666666667E-2</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>2.3958333333333401E-2</v>
+      </c>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+    </row>
+    <row r="27" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="15"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="10"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45419</v>
-      </c>
-      <c r="H27" s="1">
-        <v>4.7916666666666698E-2</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0.05</v>
-      </c>
+      <c r="G27" s="15"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
       <c r="J27" s="10"/>
-      <c r="K27" s="2">
-        <v>8</v>
-      </c>
-      <c r="L27" s="2">
-        <v>11</v>
-      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
       <c r="M27" s="15">
-        <f t="shared" si="2"/>
-        <v>45397</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45421</v>
       </c>
       <c r="N27" s="1">
         <v>4.7916666666666698E-2</v>
@@ -2596,49 +3138,55 @@
         <v>0.05</v>
       </c>
       <c r="P27" s="10"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
+      <c r="Q27" s="2">
+        <v>8</v>
+      </c>
+      <c r="R27" s="2">
+        <v>11</v>
+      </c>
       <c r="S27" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45419</v>
+        <f t="shared" si="3"/>
+        <v>45397</v>
       </c>
       <c r="T27" s="1">
-        <v>2.39583333333333E-2</v>
+        <v>4.7916666666666698E-2</v>
       </c>
       <c r="U27" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="V27" s="10"/>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
-    </row>
-    <row r="28" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y27" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45421</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>2.39583333333333E-2</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+    </row>
+    <row r="28" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="15"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="10"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45420</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="I28" s="1">
-        <v>5.2083333333333398E-2</v>
-      </c>
+      <c r="G28" s="15"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
       <c r="J28" s="10"/>
-      <c r="K28" s="2">
-        <v>3</v>
-      </c>
-      <c r="L28" s="2">
-        <v>28</v>
-      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
       <c r="M28" s="15">
-        <f t="shared" si="2"/>
-        <v>45398</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45422</v>
       </c>
       <c r="N28" s="1">
         <v>0.05</v>
@@ -2647,49 +3195,55 @@
         <v>5.2083333333333398E-2</v>
       </c>
       <c r="P28" s="10"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
+      <c r="Q28" s="2">
+        <v>3</v>
+      </c>
+      <c r="R28" s="2">
+        <v>28</v>
+      </c>
       <c r="S28" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45420</v>
+        <f t="shared" si="3"/>
+        <v>45398</v>
       </c>
       <c r="T28" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="U28" s="1">
-        <v>2.6041666666666699E-2</v>
+        <v>5.2083333333333398E-2</v>
       </c>
       <c r="V28" s="10"/>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
-    </row>
-    <row r="29" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y28" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45422</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>2.6041666666666699E-2</v>
+      </c>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+    </row>
+    <row r="29" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="15"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="10"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45421</v>
-      </c>
-      <c r="H29" s="1">
-        <v>5.2083333333333301E-2</v>
-      </c>
-      <c r="I29" s="1">
-        <v>5.4166666666666703E-2</v>
-      </c>
+      <c r="G29" s="15"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
       <c r="J29" s="10"/>
-      <c r="K29" s="2">
-        <v>3</v>
-      </c>
-      <c r="L29" s="2">
-        <v>11</v>
-      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
       <c r="M29" s="15">
-        <f t="shared" si="2"/>
-        <v>45399</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45423</v>
       </c>
       <c r="N29" s="1">
         <v>5.2083333333333301E-2</v>
@@ -2698,49 +3252,55 @@
         <v>5.4166666666666703E-2</v>
       </c>
       <c r="P29" s="10"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
+      <c r="Q29" s="2">
+        <v>3</v>
+      </c>
+      <c r="R29" s="2">
+        <v>11</v>
+      </c>
       <c r="S29" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45421</v>
+        <f t="shared" si="3"/>
+        <v>45399</v>
       </c>
       <c r="T29" s="1">
-        <v>2.6041666666666699E-2</v>
+        <v>5.2083333333333301E-2</v>
       </c>
       <c r="U29" s="1">
-        <v>2.70833333333334E-2</v>
+        <v>5.4166666666666703E-2</v>
       </c>
       <c r="V29" s="10"/>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
-    </row>
-    <row r="30" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y29" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45423</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>2.6041666666666699E-2</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>2.70833333333334E-2</v>
+      </c>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+    </row>
+    <row r="30" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="15"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="10"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45422</v>
-      </c>
-      <c r="H30" s="1">
-        <v>5.4166666666666703E-2</v>
-      </c>
-      <c r="I30" s="1">
-        <v>5.6250000000000099E-2</v>
-      </c>
+      <c r="G30" s="15"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
       <c r="J30" s="10"/>
-      <c r="K30" s="2">
-        <v>6</v>
-      </c>
-      <c r="L30" s="2">
-        <v>14</v>
-      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
       <c r="M30" s="15">
-        <f t="shared" si="2"/>
-        <v>45400</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45424</v>
       </c>
       <c r="N30" s="1">
         <v>5.4166666666666703E-2</v>
@@ -2749,49 +3309,55 @@
         <v>5.6250000000000099E-2</v>
       </c>
       <c r="P30" s="10"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
+      <c r="Q30" s="2">
+        <v>6</v>
+      </c>
+      <c r="R30" s="2">
+        <v>14</v>
+      </c>
       <c r="S30" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45422</v>
+        <f t="shared" si="3"/>
+        <v>45400</v>
       </c>
       <c r="T30" s="1">
-        <v>2.70833333333333E-2</v>
+        <v>5.4166666666666703E-2</v>
       </c>
       <c r="U30" s="1">
-        <v>2.8125000000000001E-2</v>
+        <v>5.6250000000000099E-2</v>
       </c>
       <c r="V30" s="10"/>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
-    </row>
-    <row r="31" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y30" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45424</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>2.70833333333333E-2</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>2.8125000000000001E-2</v>
+      </c>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+    </row>
+    <row r="31" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="15"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="10"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45423</v>
-      </c>
-      <c r="H31" s="1">
-        <v>5.6250000000000001E-2</v>
-      </c>
-      <c r="I31" s="1">
-        <v>5.8333333333333397E-2</v>
-      </c>
+      <c r="G31" s="15"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
       <c r="J31" s="10"/>
-      <c r="K31" s="2">
-        <v>2</v>
-      </c>
-      <c r="L31" s="2">
-        <v>41</v>
-      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
       <c r="M31" s="15">
-        <f t="shared" si="2"/>
-        <v>45401</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45425</v>
       </c>
       <c r="N31" s="1">
         <v>5.6250000000000001E-2</v>
@@ -2800,49 +3366,55 @@
         <v>5.8333333333333397E-2</v>
       </c>
       <c r="P31" s="10"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
+      <c r="Q31" s="2">
+        <v>2</v>
+      </c>
+      <c r="R31" s="2">
+        <v>41</v>
+      </c>
       <c r="S31" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45423</v>
+        <f t="shared" si="3"/>
+        <v>45401</v>
       </c>
       <c r="T31" s="1">
-        <v>2.8125000000000001E-2</v>
+        <v>5.6250000000000001E-2</v>
       </c>
       <c r="U31" s="1">
-        <v>2.9166666666666698E-2</v>
+        <v>5.8333333333333397E-2</v>
       </c>
       <c r="V31" s="10"/>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
-    </row>
-    <row r="32" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y31" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45425</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>2.8125000000000001E-2</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>2.9166666666666698E-2</v>
+      </c>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+    </row>
+    <row r="32" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="15"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="10"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45424</v>
-      </c>
-      <c r="H32" s="1">
-        <v>5.83333333333333E-2</v>
-      </c>
-      <c r="I32" s="1">
-        <v>6.0416666666666702E-2</v>
-      </c>
+      <c r="G32" s="15"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
       <c r="J32" s="10"/>
-      <c r="K32" s="2">
-        <v>7</v>
-      </c>
-      <c r="L32" s="2">
-        <v>19</v>
-      </c>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
       <c r="M32" s="15">
-        <f t="shared" si="2"/>
-        <v>45402</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45426</v>
       </c>
       <c r="N32" s="1">
         <v>5.83333333333333E-2</v>
@@ -2851,49 +3423,55 @@
         <v>6.0416666666666702E-2</v>
       </c>
       <c r="P32" s="10"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
+      <c r="Q32" s="2">
+        <v>7</v>
+      </c>
+      <c r="R32" s="2">
+        <v>19</v>
+      </c>
       <c r="S32" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45424</v>
+        <f t="shared" si="3"/>
+        <v>45402</v>
       </c>
       <c r="T32" s="1">
-        <v>2.9166666666666698E-2</v>
+        <v>5.83333333333333E-2</v>
       </c>
       <c r="U32" s="1">
-        <v>3.0208333333333399E-2</v>
+        <v>6.0416666666666702E-2</v>
       </c>
       <c r="V32" s="10"/>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
-    </row>
-    <row r="33" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y32" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45426</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>2.9166666666666698E-2</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>3.0208333333333399E-2</v>
+      </c>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+    </row>
+    <row r="33" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="15"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="10"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45425</v>
-      </c>
-      <c r="H33" s="1">
-        <v>6.0416666666666702E-2</v>
-      </c>
-      <c r="I33" s="1">
-        <v>6.2500000000000097E-2</v>
-      </c>
+      <c r="G33" s="15"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
       <c r="J33" s="10"/>
-      <c r="K33" s="2">
-        <v>0</v>
-      </c>
-      <c r="L33" s="2">
-        <v>37</v>
-      </c>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
       <c r="M33" s="15">
-        <f t="shared" si="2"/>
-        <v>45403</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45427</v>
       </c>
       <c r="N33" s="1">
         <v>6.0416666666666702E-2</v>
@@ -2902,49 +3480,55 @@
         <v>6.2500000000000097E-2</v>
       </c>
       <c r="P33" s="10"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
+      <c r="Q33" s="2">
+        <v>0</v>
+      </c>
+      <c r="R33" s="2">
+        <v>37</v>
+      </c>
       <c r="S33" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45425</v>
+        <f t="shared" si="3"/>
+        <v>45403</v>
       </c>
       <c r="T33" s="1">
-        <v>3.0208333333333299E-2</v>
+        <v>6.0416666666666702E-2</v>
       </c>
       <c r="U33" s="1">
-        <v>3.125E-2</v>
+        <v>6.2500000000000097E-2</v>
       </c>
       <c r="V33" s="10"/>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
-    </row>
-    <row r="34" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y33" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45427</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>3.0208333333333299E-2</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>3.125E-2</v>
+      </c>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+    </row>
+    <row r="34" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="15"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="10"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45426</v>
-      </c>
-      <c r="H34" s="1">
-        <v>6.25E-2</v>
-      </c>
-      <c r="I34" s="1">
-        <v>6.4583333333333395E-2</v>
-      </c>
+      <c r="G34" s="15"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
       <c r="J34" s="10"/>
-      <c r="K34" s="2">
-        <v>3</v>
-      </c>
-      <c r="L34" s="2">
-        <v>14</v>
-      </c>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
       <c r="M34" s="15">
-        <f t="shared" si="2"/>
-        <v>45404</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45428</v>
       </c>
       <c r="N34" s="1">
         <v>6.25E-2</v>
@@ -2953,49 +3537,55 @@
         <v>6.4583333333333395E-2</v>
       </c>
       <c r="P34" s="10"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
+      <c r="Q34" s="2">
+        <v>3</v>
+      </c>
+      <c r="R34" s="2">
+        <v>14</v>
+      </c>
       <c r="S34" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45426</v>
+        <f t="shared" si="3"/>
+        <v>45404</v>
       </c>
       <c r="T34" s="1">
-        <v>3.125E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="U34" s="1">
-        <v>3.2291666666666698E-2</v>
+        <v>6.4583333333333395E-2</v>
       </c>
       <c r="V34" s="10"/>
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
-    </row>
-    <row r="35" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y34" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45428</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>3.125E-2</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>3.2291666666666698E-2</v>
+      </c>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+    </row>
+    <row r="35" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="15"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="10"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45427</v>
-      </c>
-      <c r="H35" s="1">
-        <v>6.4583333333333298E-2</v>
-      </c>
-      <c r="I35" s="1">
-        <v>6.6666666666666693E-2</v>
-      </c>
+      <c r="G35" s="15"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
       <c r="J35" s="10"/>
-      <c r="K35" s="2">
-        <v>3</v>
-      </c>
-      <c r="L35" s="2">
-        <v>20</v>
-      </c>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
       <c r="M35" s="15">
-        <f t="shared" si="2"/>
-        <v>45405</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45429</v>
       </c>
       <c r="N35" s="1">
         <v>6.4583333333333298E-2</v>
@@ -3004,49 +3594,55 @@
         <v>6.6666666666666693E-2</v>
       </c>
       <c r="P35" s="10"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
+      <c r="Q35" s="2">
+        <v>3</v>
+      </c>
+      <c r="R35" s="2">
+        <v>20</v>
+      </c>
       <c r="S35" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45427</v>
+        <f t="shared" si="3"/>
+        <v>45405</v>
       </c>
       <c r="T35" s="1">
-        <v>3.2291666666666698E-2</v>
+        <v>6.4583333333333298E-2</v>
       </c>
       <c r="U35" s="1">
-        <v>3.3333333333333402E-2</v>
+        <v>6.6666666666666693E-2</v>
       </c>
       <c r="V35" s="10"/>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
-    </row>
-    <row r="36" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y35" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45429</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>3.2291666666666698E-2</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>3.3333333333333402E-2</v>
+      </c>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+    </row>
+    <row r="36" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="15"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="10"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45428</v>
-      </c>
-      <c r="H36" s="1">
-        <v>6.6666666666666693E-2</v>
-      </c>
-      <c r="I36" s="1">
-        <v>6.8750000000000103E-2</v>
-      </c>
+      <c r="G36" s="15"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
       <c r="J36" s="10"/>
-      <c r="K36" s="2">
-        <v>4</v>
-      </c>
-      <c r="L36" s="2">
-        <v>37</v>
-      </c>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
       <c r="M36" s="15">
-        <f t="shared" si="2"/>
-        <v>45406</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45430</v>
       </c>
       <c r="N36" s="1">
         <v>6.6666666666666693E-2</v>
@@ -3055,49 +3651,55 @@
         <v>6.8750000000000103E-2</v>
       </c>
       <c r="P36" s="10"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
+      <c r="Q36" s="2">
+        <v>4</v>
+      </c>
+      <c r="R36" s="2">
+        <v>37</v>
+      </c>
       <c r="S36" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45428</v>
+        <f t="shared" si="3"/>
+        <v>45406</v>
       </c>
       <c r="T36" s="1">
-        <v>3.3333333333333298E-2</v>
+        <v>6.6666666666666693E-2</v>
       </c>
       <c r="U36" s="1">
-        <v>3.4375000000000003E-2</v>
+        <v>6.8750000000000103E-2</v>
       </c>
       <c r="V36" s="10"/>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
-    </row>
-    <row r="37" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y36" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45430</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>3.4375000000000003E-2</v>
+      </c>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
+    </row>
+    <row r="37" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="15"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="10"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45429</v>
-      </c>
-      <c r="H37" s="1">
-        <v>6.8750000000000006E-2</v>
-      </c>
-      <c r="I37" s="1">
-        <v>7.0833333333333401E-2</v>
-      </c>
+      <c r="G37" s="15"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
       <c r="J37" s="10"/>
-      <c r="K37" s="2">
-        <v>4</v>
-      </c>
-      <c r="L37" s="2">
-        <v>24</v>
-      </c>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
       <c r="M37" s="15">
-        <f t="shared" si="2"/>
-        <v>45407</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45431</v>
       </c>
       <c r="N37" s="1">
         <v>6.8750000000000006E-2</v>
@@ -3106,49 +3708,55 @@
         <v>7.0833333333333401E-2</v>
       </c>
       <c r="P37" s="10"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
+      <c r="Q37" s="2">
+        <v>4</v>
+      </c>
+      <c r="R37" s="2">
+        <v>24</v>
+      </c>
       <c r="S37" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45429</v>
+        <f t="shared" si="3"/>
+        <v>45407</v>
       </c>
       <c r="T37" s="1">
-        <v>3.4375000000000003E-2</v>
+        <v>6.8750000000000006E-2</v>
       </c>
       <c r="U37" s="1">
-        <v>3.54166666666667E-2</v>
+        <v>7.0833333333333401E-2</v>
       </c>
       <c r="V37" s="10"/>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
-    </row>
-    <row r="38" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y37" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45431</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>3.4375000000000003E-2</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>3.54166666666667E-2</v>
+      </c>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
+    </row>
+    <row r="38" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="15"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="10"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45430</v>
-      </c>
-      <c r="H38" s="1">
-        <v>7.0833333333333304E-2</v>
-      </c>
-      <c r="I38" s="1">
-        <v>7.2916666666666796E-2</v>
-      </c>
+      <c r="G38" s="15"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
       <c r="J38" s="10"/>
-      <c r="K38" s="2">
-        <v>2</v>
-      </c>
-      <c r="L38" s="2">
-        <v>5</v>
-      </c>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
       <c r="M38" s="15">
-        <f t="shared" si="2"/>
-        <v>45408</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45432</v>
       </c>
       <c r="N38" s="1">
         <v>7.0833333333333304E-2</v>
@@ -3157,49 +3765,55 @@
         <v>7.2916666666666796E-2</v>
       </c>
       <c r="P38" s="10"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
+      <c r="Q38" s="2">
+        <v>2</v>
+      </c>
+      <c r="R38" s="2">
+        <v>5</v>
+      </c>
       <c r="S38" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45430</v>
+        <f t="shared" si="3"/>
+        <v>45408</v>
       </c>
       <c r="T38" s="1">
-        <v>3.54166666666667E-2</v>
+        <v>7.0833333333333304E-2</v>
       </c>
       <c r="U38" s="1">
-        <v>3.6458333333333398E-2</v>
+        <v>7.2916666666666796E-2</v>
       </c>
       <c r="V38" s="10"/>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
-    </row>
-    <row r="39" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y38" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45432</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>3.54166666666667E-2</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>3.6458333333333398E-2</v>
+      </c>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="2"/>
+    </row>
+    <row r="39" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="15"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="10"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45431</v>
-      </c>
-      <c r="H39" s="1">
-        <v>7.2916666666666699E-2</v>
-      </c>
-      <c r="I39" s="1">
-        <v>7.5000000000000094E-2</v>
-      </c>
+      <c r="G39" s="15"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
       <c r="J39" s="10"/>
-      <c r="K39" s="2">
-        <v>4</v>
-      </c>
-      <c r="L39" s="2">
-        <v>16</v>
-      </c>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
       <c r="M39" s="15">
-        <f t="shared" si="2"/>
-        <v>45409</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45433</v>
       </c>
       <c r="N39" s="1">
         <v>7.2916666666666699E-2</v>
@@ -3208,49 +3822,55 @@
         <v>7.5000000000000094E-2</v>
       </c>
       <c r="P39" s="10"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
+      <c r="Q39" s="2">
+        <v>4</v>
+      </c>
+      <c r="R39" s="2">
+        <v>16</v>
+      </c>
       <c r="S39" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45431</v>
+        <f t="shared" si="3"/>
+        <v>45409</v>
       </c>
       <c r="T39" s="1">
-        <v>3.6458333333333301E-2</v>
+        <v>7.2916666666666699E-2</v>
       </c>
       <c r="U39" s="1">
-        <v>3.7499999999999999E-2</v>
+        <v>7.5000000000000094E-2</v>
       </c>
       <c r="V39" s="10"/>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
-    </row>
-    <row r="40" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y39" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45433</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>3.6458333333333301E-2</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+    </row>
+    <row r="40" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="15"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="10"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45432</v>
-      </c>
-      <c r="H40" s="1">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="I40" s="1">
-        <v>7.7083333333333406E-2</v>
-      </c>
+      <c r="G40" s="15"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
       <c r="J40" s="10"/>
-      <c r="K40" s="2">
-        <v>4</v>
-      </c>
-      <c r="L40" s="2">
-        <v>58</v>
-      </c>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
       <c r="M40" s="15">
-        <f t="shared" si="2"/>
-        <v>45410</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45434</v>
       </c>
       <c r="N40" s="1">
         <v>7.4999999999999997E-2</v>
@@ -3259,45 +3879,55 @@
         <v>7.7083333333333406E-2</v>
       </c>
       <c r="P40" s="10"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
+      <c r="Q40" s="2">
+        <v>4</v>
+      </c>
+      <c r="R40" s="2">
+        <v>58</v>
+      </c>
       <c r="S40" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45432</v>
+        <f t="shared" si="3"/>
+        <v>45410</v>
       </c>
       <c r="T40" s="1">
-        <v>3.7499999999999999E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="U40" s="1">
-        <v>3.8541666666666703E-2</v>
+        <v>7.7083333333333406E-2</v>
       </c>
       <c r="V40" s="10"/>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
-    </row>
-    <row r="41" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y40" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45434</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>3.8541666666666703E-2</v>
+      </c>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
+    </row>
+    <row r="41" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="15"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="10"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45433</v>
-      </c>
-      <c r="H41" s="1">
-        <v>7.7083333333333295E-2</v>
-      </c>
-      <c r="I41" s="1">
-        <v>7.9166666666666802E-2</v>
-      </c>
+      <c r="G41" s="15"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
       <c r="J41" s="10"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="15">
-        <f t="shared" si="2"/>
-        <v>45411</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45435</v>
       </c>
       <c r="N41" s="1">
         <v>7.7083333333333295E-2</v>
@@ -3309,42 +3939,48 @@
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45433</v>
+        <f t="shared" si="3"/>
+        <v>45411</v>
       </c>
       <c r="T41" s="1">
-        <v>3.8541666666666703E-2</v>
+        <v>7.7083333333333295E-2</v>
       </c>
       <c r="U41" s="1">
-        <v>3.9583333333333401E-2</v>
+        <v>7.9166666666666802E-2</v>
       </c>
       <c r="V41" s="10"/>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
-    </row>
-    <row r="42" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y41" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45435</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>3.8541666666666703E-2</v>
+      </c>
+      <c r="AA41" s="1">
+        <v>3.9583333333333401E-2</v>
+      </c>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="2"/>
+      <c r="AD41" s="2"/>
+    </row>
+    <row r="42" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="15"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="10"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45434</v>
-      </c>
-      <c r="H42" s="1">
-        <v>7.9166666666666705E-2</v>
-      </c>
-      <c r="I42" s="1">
-        <v>8.12500000000001E-2</v>
-      </c>
+      <c r="G42" s="15"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
       <c r="J42" s="10"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="15">
-        <f t="shared" si="2"/>
-        <v>45412</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45436</v>
       </c>
       <c r="N42" s="1">
         <v>7.9166666666666705E-2</v>
@@ -3356,42 +3992,48 @@
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
       <c r="S42" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45434</v>
+        <f t="shared" si="3"/>
+        <v>45412</v>
       </c>
       <c r="T42" s="1">
-        <v>3.9583333333333297E-2</v>
+        <v>7.9166666666666705E-2</v>
       </c>
       <c r="U42" s="1">
-        <v>4.1666666666666664E-2</v>
+        <v>8.12500000000001E-2</v>
       </c>
       <c r="V42" s="10"/>
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
-    </row>
-    <row r="43" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y42" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45436</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>3.9583333333333297E-2</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="2"/>
+      <c r="AD42" s="2"/>
+    </row>
+    <row r="43" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="15"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="10"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45435</v>
-      </c>
-      <c r="H43" s="1">
-        <v>8.1250000000000003E-2</v>
-      </c>
-      <c r="I43" s="1">
-        <v>8.3333333333333398E-2</v>
-      </c>
+      <c r="G43" s="15"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
       <c r="J43" s="10"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="15">
-        <f t="shared" si="2"/>
-        <v>45413</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45437</v>
       </c>
       <c r="N43" s="1">
         <v>8.1250000000000003E-2</v>
@@ -3403,42 +4045,48 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
       <c r="S43" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45435</v>
+        <f t="shared" si="3"/>
+        <v>45413</v>
       </c>
       <c r="T43" s="1">
-        <v>4.1666666666666664E-2</v>
+        <v>8.1250000000000003E-2</v>
       </c>
       <c r="U43" s="1">
-        <v>4.5833333333333302E-2</v>
+        <v>8.3333333333333398E-2</v>
       </c>
       <c r="V43" s="10"/>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
-    </row>
-    <row r="44" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y43" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45437</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>4.5833333333333302E-2</v>
+      </c>
+      <c r="AB43" s="10"/>
+      <c r="AC43" s="2"/>
+      <c r="AD43" s="2"/>
+    </row>
+    <row r="44" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="15"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="10"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45436</v>
-      </c>
-      <c r="H44" s="1">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="I44" s="1">
-        <v>8.5416666666666793E-2</v>
-      </c>
+      <c r="G44" s="15"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
       <c r="J44" s="10"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="15">
-        <f t="shared" si="2"/>
-        <v>45414</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45438</v>
       </c>
       <c r="N44" s="1">
         <v>8.3333333333333301E-2</v>
@@ -3450,42 +4098,48 @@
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
       <c r="S44" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45436</v>
+        <f t="shared" si="3"/>
+        <v>45414</v>
       </c>
       <c r="T44" s="1">
-        <v>4.5833333333333302E-2</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="U44" s="1">
-        <v>5.00000000000001E-2</v>
+        <v>8.5416666666666793E-2</v>
       </c>
       <c r="V44" s="10"/>
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
-    </row>
-    <row r="45" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y44" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45438</v>
+      </c>
+      <c r="Z44" s="1">
+        <v>4.5833333333333302E-2</v>
+      </c>
+      <c r="AA44" s="1">
+        <v>5.00000000000001E-2</v>
+      </c>
+      <c r="AB44" s="10"/>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
+    </row>
+    <row r="45" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="15"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="10"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45437</v>
-      </c>
-      <c r="H45" s="1">
-        <v>8.5416666666666696E-2</v>
-      </c>
-      <c r="I45" s="1">
-        <v>8.7500000000000105E-2</v>
-      </c>
+      <c r="G45" s="15"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
       <c r="J45" s="10"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="15">
-        <f t="shared" si="2"/>
-        <v>45415</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45439</v>
       </c>
       <c r="N45" s="1">
         <v>8.5416666666666696E-2</v>
@@ -3497,42 +4151,48 @@
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
       <c r="S45" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45437</v>
+        <f t="shared" si="3"/>
+        <v>45415</v>
       </c>
       <c r="T45" s="1">
-        <v>4.9999999999999899E-2</v>
+        <v>8.5416666666666696E-2</v>
       </c>
       <c r="U45" s="1">
-        <v>5.4166666666666898E-2</v>
+        <v>8.7500000000000105E-2</v>
       </c>
       <c r="V45" s="10"/>
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
-    </row>
-    <row r="46" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y45" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45439</v>
+      </c>
+      <c r="Z45" s="1">
+        <v>4.9999999999999899E-2</v>
+      </c>
+      <c r="AA45" s="1">
+        <v>5.4166666666666898E-2</v>
+      </c>
+      <c r="AB45" s="10"/>
+      <c r="AC45" s="2"/>
+      <c r="AD45" s="2"/>
+    </row>
+    <row r="46" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="15"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="10"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45438</v>
-      </c>
-      <c r="H46" s="1">
-        <v>8.7499999999999994E-2</v>
-      </c>
-      <c r="I46" s="1">
-        <v>8.9583333333333404E-2</v>
-      </c>
+      <c r="G46" s="15"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
       <c r="J46" s="10"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="15">
-        <f t="shared" si="2"/>
-        <v>45416</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45440</v>
       </c>
       <c r="N46" s="1">
         <v>8.7499999999999994E-2</v>
@@ -3544,42 +4204,48 @@
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45438</v>
+        <f t="shared" si="3"/>
+        <v>45416</v>
       </c>
       <c r="T46" s="1">
-        <v>5.4166666666666599E-2</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="U46" s="1">
-        <v>5.8333333333333702E-2</v>
+        <v>8.9583333333333404E-2</v>
       </c>
       <c r="V46" s="10"/>
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
-    </row>
-    <row r="47" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y46" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45440</v>
+      </c>
+      <c r="Z46" s="1">
+        <v>5.4166666666666599E-2</v>
+      </c>
+      <c r="AA46" s="1">
+        <v>5.8333333333333702E-2</v>
+      </c>
+      <c r="AB46" s="10"/>
+      <c r="AC46" s="2"/>
+      <c r="AD46" s="2"/>
+    </row>
+    <row r="47" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="15"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="10"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45439</v>
-      </c>
-      <c r="H47" s="1">
-        <v>8.9583333333333307E-2</v>
-      </c>
-      <c r="I47" s="1">
-        <v>9.1666666666666799E-2</v>
-      </c>
+      <c r="G47" s="15"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
       <c r="J47" s="10"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="15">
-        <f t="shared" si="2"/>
-        <v>45417</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45441</v>
       </c>
       <c r="N47" s="1">
         <v>8.9583333333333307E-2</v>
@@ -3591,42 +4257,48 @@
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45439</v>
+        <f t="shared" si="3"/>
+        <v>45417</v>
       </c>
       <c r="T47" s="1">
-        <v>5.83333333333333E-2</v>
+        <v>8.9583333333333307E-2</v>
       </c>
       <c r="U47" s="1">
-        <v>6.25000000000005E-2</v>
+        <v>9.1666666666666799E-2</v>
       </c>
       <c r="V47" s="10"/>
       <c r="W47" s="2"/>
       <c r="X47" s="2"/>
-    </row>
-    <row r="48" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y47" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45441</v>
+      </c>
+      <c r="Z47" s="1">
+        <v>5.83333333333333E-2</v>
+      </c>
+      <c r="AA47" s="1">
+        <v>6.25000000000005E-2</v>
+      </c>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="2"/>
+      <c r="AD47" s="2"/>
+    </row>
+    <row r="48" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="15"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="10"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45440</v>
-      </c>
-      <c r="H48" s="1">
-        <v>9.1666666666666702E-2</v>
-      </c>
-      <c r="I48" s="1">
-        <v>9.3750000000000097E-2</v>
-      </c>
+      <c r="G48" s="15"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
       <c r="J48" s="10"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="15">
-        <f t="shared" si="2"/>
-        <v>45418</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45442</v>
       </c>
       <c r="N48" s="1">
         <v>9.1666666666666702E-2</v>
@@ -3638,42 +4310,48 @@
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
       <c r="S48" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45440</v>
+        <f t="shared" si="3"/>
+        <v>45418</v>
       </c>
       <c r="T48" s="1">
-        <v>6.2499999999999903E-2</v>
+        <v>9.1666666666666702E-2</v>
       </c>
       <c r="U48" s="1">
-        <v>6.6666666666667304E-2</v>
+        <v>9.3750000000000097E-2</v>
       </c>
       <c r="V48" s="10"/>
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
-    </row>
-    <row r="49" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y48" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45442</v>
+      </c>
+      <c r="Z48" s="1">
+        <v>6.2499999999999903E-2</v>
+      </c>
+      <c r="AA48" s="1">
+        <v>6.6666666666667304E-2</v>
+      </c>
+      <c r="AB48" s="10"/>
+      <c r="AC48" s="2"/>
+      <c r="AD48" s="2"/>
+    </row>
+    <row r="49" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="15"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="10"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45441</v>
-      </c>
-      <c r="H49" s="1">
-        <v>9.375E-2</v>
-      </c>
-      <c r="I49" s="1">
-        <v>9.5833333333333506E-2</v>
-      </c>
+      <c r="G49" s="15"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
       <c r="J49" s="10"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
       <c r="M49" s="15">
-        <f t="shared" si="2"/>
-        <v>45419</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45443</v>
       </c>
       <c r="N49" s="1">
         <v>9.375E-2</v>
@@ -3685,42 +4363,48 @@
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
       <c r="S49" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45441</v>
+        <f t="shared" si="3"/>
+        <v>45419</v>
       </c>
       <c r="T49" s="1">
-        <v>6.6666666666666499E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="U49" s="1">
-        <v>7.0833333333334095E-2</v>
+        <v>9.5833333333333506E-2</v>
       </c>
       <c r="V49" s="10"/>
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
-    </row>
-    <row r="50" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y49" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45443</v>
+      </c>
+      <c r="Z49" s="1">
+        <v>6.6666666666666499E-2</v>
+      </c>
+      <c r="AA49" s="1">
+        <v>7.0833333333334095E-2</v>
+      </c>
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="2"/>
+      <c r="AD49" s="2"/>
+    </row>
+    <row r="50" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="15"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="10"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45442</v>
-      </c>
-      <c r="H50" s="1">
-        <v>9.5833333333333298E-2</v>
-      </c>
-      <c r="I50" s="1">
-        <v>9.7916666666666805E-2</v>
-      </c>
+      <c r="G50" s="15"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
       <c r="J50" s="10"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="15">
-        <f t="shared" si="2"/>
-        <v>45420</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45444</v>
       </c>
       <c r="N50" s="1">
         <v>9.5833333333333298E-2</v>
@@ -3732,42 +4416,48 @@
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
       <c r="S50" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45442</v>
+        <f t="shared" si="3"/>
+        <v>45420</v>
       </c>
       <c r="T50" s="1">
-        <v>7.0833333333333207E-2</v>
+        <v>9.5833333333333298E-2</v>
       </c>
       <c r="U50" s="1">
-        <v>7.5000000000000899E-2</v>
+        <v>9.7916666666666805E-2</v>
       </c>
       <c r="V50" s="10"/>
       <c r="W50" s="2"/>
       <c r="X50" s="2"/>
-    </row>
-    <row r="51" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y50" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45444</v>
+      </c>
+      <c r="Z50" s="1">
+        <v>7.0833333333333207E-2</v>
+      </c>
+      <c r="AA50" s="1">
+        <v>7.5000000000000899E-2</v>
+      </c>
+      <c r="AB50" s="10"/>
+      <c r="AC50" s="2"/>
+      <c r="AD50" s="2"/>
+    </row>
+    <row r="51" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="15"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="10"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45443</v>
-      </c>
-      <c r="H51" s="1">
-        <v>9.7916666666666693E-2</v>
-      </c>
-      <c r="I51" s="1">
-        <v>0.1</v>
-      </c>
+      <c r="G51" s="15"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
       <c r="J51" s="10"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="15">
-        <f t="shared" si="2"/>
-        <v>45421</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45445</v>
       </c>
       <c r="N51" s="1">
         <v>9.7916666666666693E-2</v>
@@ -3779,42 +4469,48 @@
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
       <c r="S51" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45443</v>
+        <f t="shared" si="3"/>
+        <v>45421</v>
       </c>
       <c r="T51" s="1">
-        <v>7.4999999999999803E-2</v>
+        <v>9.7916666666666693E-2</v>
       </c>
       <c r="U51" s="1">
-        <v>7.9166666666667704E-2</v>
+        <v>0.1</v>
       </c>
       <c r="V51" s="10"/>
       <c r="W51" s="2"/>
       <c r="X51" s="2"/>
-    </row>
-    <row r="52" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y51" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45445</v>
+      </c>
+      <c r="Z51" s="1">
+        <v>7.4999999999999803E-2</v>
+      </c>
+      <c r="AA51" s="1">
+        <v>7.9166666666667704E-2</v>
+      </c>
+      <c r="AB51" s="10"/>
+      <c r="AC51" s="2"/>
+      <c r="AD51" s="2"/>
+    </row>
+    <row r="52" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="15"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="10"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45444</v>
-      </c>
-      <c r="H52" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="I52" s="1">
-        <v>0.102083333333333</v>
-      </c>
+      <c r="G52" s="15"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
       <c r="J52" s="10"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="15">
-        <f t="shared" si="2"/>
-        <v>45422</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45446</v>
       </c>
       <c r="N52" s="1">
         <v>0.1</v>
@@ -3826,42 +4522,48 @@
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45444</v>
+        <f t="shared" si="3"/>
+        <v>45422</v>
       </c>
       <c r="T52" s="1">
-        <v>7.9166666666666399E-2</v>
+        <v>0.1</v>
       </c>
       <c r="U52" s="1">
-        <v>8.3333333333334494E-2</v>
+        <v>0.102083333333333</v>
       </c>
       <c r="V52" s="10"/>
       <c r="W52" s="2"/>
       <c r="X52" s="2"/>
-    </row>
-    <row r="53" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y52" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45446</v>
+      </c>
+      <c r="Z52" s="1">
+        <v>7.9166666666666399E-2</v>
+      </c>
+      <c r="AA52" s="1">
+        <v>8.3333333333334494E-2</v>
+      </c>
+      <c r="AB52" s="10"/>
+      <c r="AC52" s="2"/>
+      <c r="AD52" s="2"/>
+    </row>
+    <row r="53" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="15"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="10"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
-      <c r="G53" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45445</v>
-      </c>
-      <c r="H53" s="1">
-        <v>0.102083333333333</v>
-      </c>
-      <c r="I53" s="1">
-        <v>0.10416666666666601</v>
-      </c>
+      <c r="G53" s="15"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
       <c r="J53" s="10"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="15">
-        <f t="shared" si="2"/>
-        <v>45423</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45447</v>
       </c>
       <c r="N53" s="1">
         <v>0.102083333333333</v>
@@ -3873,42 +4575,48 @@
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
       <c r="S53" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45445</v>
+        <f t="shared" si="3"/>
+        <v>45423</v>
       </c>
       <c r="T53" s="1">
-        <v>8.3333333333333107E-2</v>
+        <v>0.102083333333333</v>
       </c>
       <c r="U53" s="1">
-        <v>9.0277777777777776E-2</v>
+        <v>0.10416666666666601</v>
       </c>
       <c r="V53" s="10"/>
       <c r="W53" s="2"/>
       <c r="X53" s="2"/>
-    </row>
-    <row r="54" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y53" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45447</v>
+      </c>
+      <c r="Z53" s="1">
+        <v>8.3333333333333107E-2</v>
+      </c>
+      <c r="AA53" s="1">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="AB53" s="10"/>
+      <c r="AC53" s="2"/>
+      <c r="AD53" s="2"/>
+    </row>
+    <row r="54" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="15"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="10"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
-      <c r="G54" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45446</v>
-      </c>
-      <c r="H54" s="1">
-        <v>0.104166666666667</v>
-      </c>
-      <c r="I54" s="1">
-        <v>0.10625</v>
-      </c>
+      <c r="G54" s="15"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
       <c r="J54" s="10"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="15">
-        <f t="shared" si="2"/>
-        <v>45424</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45448</v>
       </c>
       <c r="N54" s="1">
         <v>0.104166666666667</v>
@@ -3920,42 +4628,48 @@
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
       <c r="S54" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45446</v>
+        <f t="shared" si="3"/>
+        <v>45424</v>
       </c>
       <c r="T54" s="1">
-        <v>9.0277777777777776E-2</v>
+        <v>0.104166666666667</v>
       </c>
       <c r="U54" s="1">
-        <v>9.7222222222222224E-2</v>
+        <v>0.10625</v>
       </c>
       <c r="V54" s="10"/>
       <c r="W54" s="2"/>
       <c r="X54" s="2"/>
-    </row>
-    <row r="55" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y54" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45448</v>
+      </c>
+      <c r="Z54" s="1">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="AA54" s="1">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="AB54" s="10"/>
+      <c r="AC54" s="2"/>
+      <c r="AD54" s="2"/>
+    </row>
+    <row r="55" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="15"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="10"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
-      <c r="G55" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45447</v>
-      </c>
-      <c r="H55" s="1">
-        <v>0.10625</v>
-      </c>
-      <c r="I55" s="1">
-        <v>0.108333333333333</v>
-      </c>
+      <c r="G55" s="15"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
       <c r="J55" s="10"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="15">
-        <f t="shared" si="2"/>
-        <v>45425</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45449</v>
       </c>
       <c r="N55" s="1">
         <v>0.10625</v>
@@ -3967,42 +4681,48 @@
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
       <c r="S55" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45447</v>
+        <f t="shared" si="3"/>
+        <v>45425</v>
       </c>
       <c r="T55" s="1">
-        <v>9.7222222222222404E-2</v>
+        <v>0.10625</v>
       </c>
       <c r="U55" s="1">
-        <v>0.104166666666667</v>
+        <v>0.108333333333333</v>
       </c>
       <c r="V55" s="10"/>
       <c r="W55" s="2"/>
       <c r="X55" s="2"/>
-    </row>
-    <row r="56" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y55" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45449</v>
+      </c>
+      <c r="Z55" s="1">
+        <v>9.7222222222222404E-2</v>
+      </c>
+      <c r="AA55" s="1">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="AB55" s="10"/>
+      <c r="AC55" s="2"/>
+      <c r="AD55" s="2"/>
+    </row>
+    <row r="56" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="15"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="10"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45448</v>
-      </c>
-      <c r="H56" s="1">
-        <v>0.108333333333333</v>
-      </c>
-      <c r="I56" s="1">
-        <v>0.110416666666667</v>
-      </c>
+      <c r="G56" s="15"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
       <c r="J56" s="10"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="15">
-        <f t="shared" si="2"/>
-        <v>45426</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45450</v>
       </c>
       <c r="N56" s="1">
         <v>0.108333333333333</v>
@@ -4014,42 +4734,48 @@
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
       <c r="S56" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45448</v>
+        <f t="shared" si="3"/>
+        <v>45426</v>
       </c>
       <c r="T56" s="1">
-        <v>0.104166666666667</v>
+        <v>0.108333333333333</v>
       </c>
       <c r="U56" s="1">
-        <v>0.11111111111111099</v>
+        <v>0.110416666666667</v>
       </c>
       <c r="V56" s="10"/>
       <c r="W56" s="2"/>
       <c r="X56" s="2"/>
-    </row>
-    <row r="57" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y56" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45450</v>
+      </c>
+      <c r="Z56" s="1">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="AA56" s="1">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="AB56" s="10"/>
+      <c r="AC56" s="2"/>
+      <c r="AD56" s="2"/>
+    </row>
+    <row r="57" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="15"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="10"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
-      <c r="G57" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45449</v>
-      </c>
-      <c r="H57" s="1">
-        <v>0.110416666666667</v>
-      </c>
-      <c r="I57" s="1">
-        <v>0.1125</v>
-      </c>
+      <c r="G57" s="15"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
       <c r="J57" s="10"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="15">
-        <f t="shared" si="2"/>
-        <v>45427</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45451</v>
       </c>
       <c r="N57" s="1">
         <v>0.110416666666667</v>
@@ -4061,42 +4787,48 @@
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
       <c r="S57" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45449</v>
+        <f t="shared" si="3"/>
+        <v>45427</v>
       </c>
       <c r="T57" s="1">
-        <v>0.11111111111111199</v>
+        <v>0.110416666666667</v>
       </c>
       <c r="U57" s="1">
-        <v>0.118055555555556</v>
+        <v>0.1125</v>
       </c>
       <c r="V57" s="10"/>
       <c r="W57" s="2"/>
       <c r="X57" s="2"/>
-    </row>
-    <row r="58" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y57" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45451</v>
+      </c>
+      <c r="Z57" s="1">
+        <v>0.11111111111111199</v>
+      </c>
+      <c r="AA57" s="1">
+        <v>0.118055555555556</v>
+      </c>
+      <c r="AB57" s="10"/>
+      <c r="AC57" s="2"/>
+      <c r="AD57" s="2"/>
+    </row>
+    <row r="58" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="15"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="10"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
-      <c r="G58" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45450</v>
-      </c>
-      <c r="H58" s="1">
-        <v>0.1125</v>
-      </c>
-      <c r="I58" s="1">
-        <v>0.114583333333333</v>
-      </c>
+      <c r="G58" s="15"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
       <c r="J58" s="10"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="15">
-        <f t="shared" si="2"/>
-        <v>45428</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45452</v>
       </c>
       <c r="N58" s="1">
         <v>0.1125</v>
@@ -4108,42 +4840,48 @@
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
       <c r="S58" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45450</v>
+        <f t="shared" si="3"/>
+        <v>45428</v>
       </c>
       <c r="T58" s="1">
-        <v>0.118055555555556</v>
+        <v>0.1125</v>
       </c>
       <c r="U58" s="1">
-        <v>0.125</v>
+        <v>0.114583333333333</v>
       </c>
       <c r="V58" s="10"/>
       <c r="W58" s="2"/>
       <c r="X58" s="2"/>
-    </row>
-    <row r="59" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y58" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45452</v>
+      </c>
+      <c r="Z58" s="1">
+        <v>0.118055555555556</v>
+      </c>
+      <c r="AA58" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="AB58" s="10"/>
+      <c r="AC58" s="2"/>
+      <c r="AD58" s="2"/>
+    </row>
+    <row r="59" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="15"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="10"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
-      <c r="G59" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45451</v>
-      </c>
-      <c r="H59" s="1">
-        <v>0.114583333333333</v>
-      </c>
-      <c r="I59" s="1">
-        <v>0.116666666666667</v>
-      </c>
+      <c r="G59" s="15"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
       <c r="J59" s="10"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="15">
-        <f t="shared" si="2"/>
-        <v>45429</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45453</v>
       </c>
       <c r="N59" s="1">
         <v>0.114583333333333</v>
@@ -4155,42 +4893,48 @@
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
       <c r="S59" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45451</v>
+        <f t="shared" si="3"/>
+        <v>45429</v>
       </c>
       <c r="T59" s="1">
-        <v>0.125000000000001</v>
+        <v>0.114583333333333</v>
       </c>
       <c r="U59" s="1">
-        <v>0.131944444444444</v>
+        <v>0.116666666666667</v>
       </c>
       <c r="V59" s="10"/>
       <c r="W59" s="2"/>
       <c r="X59" s="2"/>
-    </row>
-    <row r="60" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y59" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45453</v>
+      </c>
+      <c r="Z59" s="1">
+        <v>0.125000000000001</v>
+      </c>
+      <c r="AA59" s="1">
+        <v>0.131944444444444</v>
+      </c>
+      <c r="AB59" s="10"/>
+      <c r="AC59" s="2"/>
+      <c r="AD59" s="2"/>
+    </row>
+    <row r="60" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="15"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="10"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
-      <c r="G60" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45452</v>
-      </c>
-      <c r="H60" s="1">
-        <v>0.116666666666667</v>
-      </c>
-      <c r="I60" s="1">
-        <v>0.11874999999999999</v>
-      </c>
+      <c r="G60" s="15"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
       <c r="J60" s="10"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
       <c r="M60" s="15">
-        <f t="shared" si="2"/>
-        <v>45430</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45454</v>
       </c>
       <c r="N60" s="1">
         <v>0.116666666666667</v>
@@ -4202,42 +4946,48 @@
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
       <c r="S60" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45452</v>
+        <f t="shared" si="3"/>
+        <v>45430</v>
       </c>
       <c r="T60" s="1">
-        <v>0.131944444444446</v>
+        <v>0.116666666666667</v>
       </c>
       <c r="U60" s="1">
-        <v>0.13888888888888901</v>
+        <v>0.11874999999999999</v>
       </c>
       <c r="V60" s="10"/>
       <c r="W60" s="2"/>
       <c r="X60" s="2"/>
-    </row>
-    <row r="61" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y60" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45454</v>
+      </c>
+      <c r="Z60" s="1">
+        <v>0.131944444444446</v>
+      </c>
+      <c r="AA60" s="1">
+        <v>0.13888888888888901</v>
+      </c>
+      <c r="AB60" s="10"/>
+      <c r="AC60" s="2"/>
+      <c r="AD60" s="2"/>
+    </row>
+    <row r="61" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="15"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="10"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
-      <c r="G61" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45453</v>
-      </c>
-      <c r="H61" s="1">
-        <v>0.11874999999999999</v>
-      </c>
-      <c r="I61" s="1">
-        <v>0.120833333333333</v>
-      </c>
+      <c r="G61" s="15"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
       <c r="J61" s="10"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
       <c r="M61" s="15">
-        <f t="shared" si="2"/>
-        <v>45431</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45455</v>
       </c>
       <c r="N61" s="1">
         <v>0.11874999999999999</v>
@@ -4249,42 +4999,48 @@
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
       <c r="S61" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>45453</v>
+        <f t="shared" si="3"/>
+        <v>45431</v>
       </c>
       <c r="T61" s="1">
-        <v>0.138888888888891</v>
+        <v>0.11874999999999999</v>
       </c>
       <c r="U61" s="1">
-        <v>0.14583333333333301</v>
+        <v>0.120833333333333</v>
       </c>
       <c r="V61" s="10"/>
       <c r="W61" s="2"/>
       <c r="X61" s="2"/>
-    </row>
-    <row r="62" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y61" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45455</v>
+      </c>
+      <c r="Z61" s="1">
+        <v>0.138888888888891</v>
+      </c>
+      <c r="AA61" s="1">
+        <v>0.14583333333333301</v>
+      </c>
+      <c r="AB61" s="10"/>
+      <c r="AC61" s="2"/>
+      <c r="AD61" s="2"/>
+    </row>
+    <row r="62" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="15"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="10"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
-      <c r="G62" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45454</v>
-      </c>
-      <c r="H62" s="1">
-        <v>0.120833333333333</v>
-      </c>
-      <c r="I62" s="1">
-        <v>0.12291666666666699</v>
-      </c>
+      <c r="G62" s="15"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
       <c r="J62" s="10"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
       <c r="M62" s="15">
-        <f t="shared" si="2"/>
-        <v>45432</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45456</v>
       </c>
       <c r="N62" s="1">
         <v>0.120833333333333</v>
@@ -4295,36 +5051,42 @@
       <c r="P62" s="10"/>
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
-      <c r="S62" s="15"/>
-      <c r="T62" s="1"/>
-      <c r="U62" s="1"/>
+      <c r="S62" s="15">
+        <f t="shared" si="3"/>
+        <v>45432</v>
+      </c>
+      <c r="T62" s="1">
+        <v>0.120833333333333</v>
+      </c>
+      <c r="U62" s="1">
+        <v>0.12291666666666699</v>
+      </c>
       <c r="V62" s="10"/>
       <c r="W62" s="2"/>
       <c r="X62" s="2"/>
-    </row>
-    <row r="63" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y62" s="15"/>
+      <c r="Z62" s="1"/>
+      <c r="AA62" s="1"/>
+      <c r="AB62" s="10"/>
+      <c r="AC62" s="2"/>
+      <c r="AD62" s="2"/>
+    </row>
+    <row r="63" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="15"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="10"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
-      <c r="G63" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45455</v>
-      </c>
-      <c r="H63" s="1">
-        <v>0.12291666666666699</v>
-      </c>
-      <c r="I63" s="1">
-        <v>0.125</v>
-      </c>
+      <c r="G63" s="15"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
       <c r="J63" s="10"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
       <c r="M63" s="15">
-        <f t="shared" si="2"/>
-        <v>45433</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45457</v>
       </c>
       <c r="N63" s="1">
         <v>0.12291666666666699</v>
@@ -4335,36 +5097,42 @@
       <c r="P63" s="10"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
-      <c r="S63" s="15"/>
-      <c r="T63" s="1"/>
-      <c r="U63" s="1"/>
+      <c r="S63" s="15">
+        <f t="shared" si="3"/>
+        <v>45433</v>
+      </c>
+      <c r="T63" s="1">
+        <v>0.12291666666666699</v>
+      </c>
+      <c r="U63" s="1">
+        <v>0.125</v>
+      </c>
       <c r="V63" s="10"/>
       <c r="W63" s="2"/>
       <c r="X63" s="2"/>
-    </row>
-    <row r="64" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y63" s="15"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="10"/>
+      <c r="AC63" s="2"/>
+      <c r="AD63" s="2"/>
+    </row>
+    <row r="64" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="15"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="10"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
-      <c r="G64" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45456</v>
-      </c>
-      <c r="H64" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="I64" s="1">
-        <v>0.12708333333333299</v>
-      </c>
+      <c r="G64" s="15"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
       <c r="J64" s="10"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" s="15">
-        <f t="shared" si="2"/>
-        <v>45434</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45458</v>
       </c>
       <c r="N64" s="1">
         <v>0.125</v>
@@ -4375,36 +5143,42 @@
       <c r="P64" s="10"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
-      <c r="S64" s="15"/>
-      <c r="T64" s="1"/>
-      <c r="U64" s="1"/>
+      <c r="S64" s="15">
+        <f t="shared" si="3"/>
+        <v>45434</v>
+      </c>
+      <c r="T64" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="U64" s="1">
+        <v>0.12708333333333299</v>
+      </c>
       <c r="V64" s="10"/>
       <c r="W64" s="2"/>
       <c r="X64" s="2"/>
-    </row>
-    <row r="65" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y64" s="15"/>
+      <c r="Z64" s="1"/>
+      <c r="AA64" s="1"/>
+      <c r="AB64" s="10"/>
+      <c r="AC64" s="2"/>
+      <c r="AD64" s="2"/>
+    </row>
+    <row r="65" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="15"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="10"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
-      <c r="G65" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45457</v>
-      </c>
-      <c r="H65" s="1">
-        <v>0.12708333333333299</v>
-      </c>
-      <c r="I65" s="1">
-        <v>0.12916666666666701</v>
-      </c>
+      <c r="G65" s="15"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
       <c r="J65" s="10"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
       <c r="M65" s="15">
-        <f t="shared" si="2"/>
-        <v>45435</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45459</v>
       </c>
       <c r="N65" s="1">
         <v>0.12708333333333299</v>
@@ -4415,36 +5189,42 @@
       <c r="P65" s="10"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
-      <c r="S65" s="15"/>
-      <c r="T65" s="1"/>
-      <c r="U65" s="1"/>
+      <c r="S65" s="15">
+        <f t="shared" si="3"/>
+        <v>45435</v>
+      </c>
+      <c r="T65" s="1">
+        <v>0.12708333333333299</v>
+      </c>
+      <c r="U65" s="1">
+        <v>0.12916666666666701</v>
+      </c>
       <c r="V65" s="10"/>
       <c r="W65" s="2"/>
       <c r="X65" s="2"/>
-    </row>
-    <row r="66" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y65" s="15"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
+      <c r="AB65" s="10"/>
+      <c r="AC65" s="2"/>
+      <c r="AD65" s="2"/>
+    </row>
+    <row r="66" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="15"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="10"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
-      <c r="G66" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45458</v>
-      </c>
-      <c r="H66" s="1">
-        <v>0.12916666666666701</v>
-      </c>
-      <c r="I66" s="1">
-        <v>0.13125000000000001</v>
-      </c>
+      <c r="G66" s="15"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
       <c r="J66" s="10"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
       <c r="M66" s="15">
-        <f t="shared" si="2"/>
-        <v>45436</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45460</v>
       </c>
       <c r="N66" s="1">
         <v>0.12916666666666701</v>
@@ -4455,36 +5235,42 @@
       <c r="P66" s="10"/>
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
-      <c r="S66" s="15"/>
-      <c r="T66" s="1"/>
-      <c r="U66" s="1"/>
+      <c r="S66" s="15">
+        <f t="shared" si="3"/>
+        <v>45436</v>
+      </c>
+      <c r="T66" s="1">
+        <v>0.12916666666666701</v>
+      </c>
+      <c r="U66" s="1">
+        <v>0.13125000000000001</v>
+      </c>
       <c r="V66" s="10"/>
       <c r="W66" s="2"/>
       <c r="X66" s="2"/>
-    </row>
-    <row r="67" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y66" s="15"/>
+      <c r="Z66" s="1"/>
+      <c r="AA66" s="1"/>
+      <c r="AB66" s="10"/>
+      <c r="AC66" s="2"/>
+      <c r="AD66" s="2"/>
+    </row>
+    <row r="67" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="15"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="10"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
-      <c r="G67" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45459</v>
-      </c>
-      <c r="H67" s="1">
-        <v>0.13125000000000001</v>
-      </c>
-      <c r="I67" s="1">
-        <v>0.133333333333333</v>
-      </c>
+      <c r="G67" s="15"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
       <c r="J67" s="10"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
       <c r="M67" s="15">
-        <f t="shared" si="2"/>
-        <v>45437</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45461</v>
       </c>
       <c r="N67" s="1">
         <v>0.13125000000000001</v>
@@ -4495,36 +5281,42 @@
       <c r="P67" s="10"/>
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
-      <c r="S67" s="15"/>
-      <c r="T67" s="1"/>
-      <c r="U67" s="1"/>
+      <c r="S67" s="15">
+        <f t="shared" si="3"/>
+        <v>45437</v>
+      </c>
+      <c r="T67" s="1">
+        <v>0.13125000000000001</v>
+      </c>
+      <c r="U67" s="1">
+        <v>0.133333333333333</v>
+      </c>
       <c r="V67" s="10"/>
       <c r="W67" s="2"/>
       <c r="X67" s="2"/>
-    </row>
-    <row r="68" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y67" s="15"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="10"/>
+      <c r="AC67" s="2"/>
+      <c r="AD67" s="2"/>
+    </row>
+    <row r="68" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="15"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="10"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
-      <c r="G68" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45460</v>
-      </c>
-      <c r="H68" s="1">
-        <v>0.133333333333333</v>
-      </c>
-      <c r="I68" s="1">
-        <v>0.13541666666666699</v>
-      </c>
+      <c r="G68" s="15"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
       <c r="J68" s="10"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
       <c r="M68" s="15">
-        <f t="shared" si="2"/>
-        <v>45438</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45462</v>
       </c>
       <c r="N68" s="1">
         <v>0.133333333333333</v>
@@ -4535,36 +5327,42 @@
       <c r="P68" s="10"/>
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
-      <c r="S68" s="15"/>
-      <c r="T68" s="1"/>
-      <c r="U68" s="1"/>
+      <c r="S68" s="15">
+        <f t="shared" si="3"/>
+        <v>45438</v>
+      </c>
+      <c r="T68" s="1">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="U68" s="1">
+        <v>0.13541666666666699</v>
+      </c>
       <c r="V68" s="10"/>
       <c r="W68" s="2"/>
       <c r="X68" s="2"/>
-    </row>
-    <row r="69" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y68" s="15"/>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
+      <c r="AB68" s="10"/>
+      <c r="AC68" s="2"/>
+      <c r="AD68" s="2"/>
+    </row>
+    <row r="69" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="15"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="10"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
-      <c r="G69" s="15">
-        <f t="shared" ca="1" si="1"/>
-        <v>45461</v>
-      </c>
-      <c r="H69" s="1">
-        <v>0.13541666666666699</v>
-      </c>
-      <c r="I69" s="1">
-        <v>0.13750000000000001</v>
-      </c>
+      <c r="G69" s="15"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
       <c r="J69" s="10"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
       <c r="M69" s="15">
-        <f t="shared" si="2"/>
-        <v>45439</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45463</v>
       </c>
       <c r="N69" s="1">
         <v>0.13541666666666699</v>
@@ -4575,36 +5373,42 @@
       <c r="P69" s="10"/>
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
-      <c r="S69" s="15"/>
-      <c r="T69" s="1"/>
-      <c r="U69" s="1"/>
+      <c r="S69" s="15">
+        <f t="shared" si="3"/>
+        <v>45439</v>
+      </c>
+      <c r="T69" s="1">
+        <v>0.13541666666666699</v>
+      </c>
+      <c r="U69" s="1">
+        <v>0.13750000000000001</v>
+      </c>
       <c r="V69" s="10"/>
       <c r="W69" s="2"/>
       <c r="X69" s="2"/>
-    </row>
-    <row r="70" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y69" s="15"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="10"/>
+      <c r="AC69" s="2"/>
+      <c r="AD69" s="2"/>
+    </row>
+    <row r="70" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="15"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="10"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
-      <c r="G70" s="15">
-        <f t="shared" ref="G70:G71" ca="1" si="4">G69+1</f>
-        <v>45462</v>
-      </c>
-      <c r="H70" s="1">
-        <v>0.13750000000000001</v>
-      </c>
-      <c r="I70" s="1">
-        <v>0.139583333333333</v>
-      </c>
+      <c r="G70" s="15"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
       <c r="J70" s="10"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
       <c r="M70" s="15">
-        <f t="shared" ref="M70:M71" si="5">M69+1</f>
-        <v>45440</v>
+        <f t="shared" ref="M70:M71" ca="1" si="5">M69+1</f>
+        <v>45464</v>
       </c>
       <c r="N70" s="1">
         <v>0.13750000000000001</v>
@@ -4615,36 +5419,42 @@
       <c r="P70" s="10"/>
       <c r="Q70" s="2"/>
       <c r="R70" s="2"/>
-      <c r="S70" s="15"/>
-      <c r="T70" s="1"/>
-      <c r="U70" s="1"/>
+      <c r="S70" s="15">
+        <f t="shared" ref="S70:S71" si="6">S69+1</f>
+        <v>45440</v>
+      </c>
+      <c r="T70" s="1">
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="U70" s="1">
+        <v>0.139583333333333</v>
+      </c>
       <c r="V70" s="10"/>
       <c r="W70" s="2"/>
       <c r="X70" s="2"/>
-    </row>
-    <row r="71" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y70" s="15"/>
+      <c r="Z70" s="1"/>
+      <c r="AA70" s="1"/>
+      <c r="AB70" s="10"/>
+      <c r="AC70" s="2"/>
+      <c r="AD70" s="2"/>
+    </row>
+    <row r="71" spans="1:30" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="15"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="10"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
-      <c r="G71" s="15">
-        <f t="shared" ca="1" si="4"/>
-        <v>45463</v>
-      </c>
-      <c r="H71" s="1">
-        <v>0.139583333333333</v>
-      </c>
-      <c r="I71" s="1">
-        <v>0.141666666666667</v>
-      </c>
+      <c r="G71" s="15"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
       <c r="J71" s="10"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
       <c r="M71" s="15">
-        <f t="shared" si="5"/>
-        <v>45441</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45465</v>
       </c>
       <c r="N71" s="1">
         <v>0.139583333333333</v>
@@ -4655,28 +5465,43 @@
       <c r="P71" s="10"/>
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
-      <c r="S71" s="15"/>
-      <c r="T71" s="1"/>
-      <c r="U71" s="1"/>
+      <c r="S71" s="15">
+        <f t="shared" si="6"/>
+        <v>45441</v>
+      </c>
+      <c r="T71" s="1">
+        <v>0.139583333333333</v>
+      </c>
+      <c r="U71" s="1">
+        <v>0.141666666666667</v>
+      </c>
       <c r="V71" s="10"/>
       <c r="W71" s="2"/>
       <c r="X71" s="2"/>
-    </row>
-    <row r="72" spans="1:24" ht="21.6" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="Y71" s="15"/>
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="1"/>
+      <c r="AB71" s="10"/>
+      <c r="AC71" s="2"/>
+      <c r="AD71" s="2"/>
+    </row>
+    <row r="72" spans="1:30" ht="21.6" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="Y1:AB2"/>
     <mergeCell ref="S1:V2"/>
     <mergeCell ref="M1:P2"/>
+    <mergeCell ref="A1:D2"/>
     <mergeCell ref="G1:J2"/>
-    <mergeCell ref="A1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="4">
+  <tableParts count="5">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>